--- a/benchmark17/AvgStdBest.xlsx
+++ b/benchmark17/AvgStdBest.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="2088" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="522" uniqueCount="18">
   <si>
     <t>Algorithm</t>
   </si>
@@ -79,13 +79,13 @@
     <t>TSO</t>
   </si>
   <si>
-    <t>GA</t>
+    <t>PO</t>
   </si>
   <si>
-    <t>ABC</t>
+    <t>CPO</t>
   </si>
   <si>
-    <t>GWO</t>
+    <t>PLO</t>
   </si>
   <si>
     <t>TLBO</t>
@@ -146,7 +146,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" customWidth="true"/>
+    <col min="1" max="1" width="5.1796875" customWidth="true"/>
     <col min="2" max="2" width="15.453125" customWidth="true"/>
     <col min="3" max="3" width="15.453125" customWidth="true"/>
     <col min="4" max="4" width="15.453125" customWidth="true"/>
@@ -259,31 +259,31 @@
         <v>12</v>
       </c>
       <c r="B4" s="0">
-        <v>57641953953.164467</v>
+        <v>121270268.48744793</v>
       </c>
       <c r="C4" s="0">
-        <v>100794110204.63593</v>
+        <v>696399889.5090251</v>
       </c>
       <c r="D4" s="0">
-        <v>17872624339.506569</v>
+        <v>571258712.78166842</v>
       </c>
       <c r="E4" s="0">
-        <v>154167282092.85077</v>
+        <v>1600492085.339401</v>
       </c>
       <c r="F4" s="0">
-        <v>228330736818.30536</v>
+        <v>4273047149.8202906</v>
       </c>
       <c r="G4" s="0">
-        <v>28221726044.018208</v>
+        <v>1835273640.0887153</v>
       </c>
       <c r="H4" s="0">
-        <v>506547049926.10455</v>
+        <v>20368811933.942085</v>
       </c>
       <c r="I4" s="0">
-        <v>610907061162.66528</v>
+        <v>32712185364.58643</v>
       </c>
       <c r="J4" s="0">
-        <v>41476988061.276596</v>
+        <v>6759877060.4523973</v>
       </c>
     </row>
     <row r="5">
@@ -291,31 +291,31 @@
         <v>13</v>
       </c>
       <c r="B5" s="0">
-        <v>1605195028.1836355</v>
+        <v>30172.767628015208</v>
       </c>
       <c r="C5" s="0">
-        <v>7701375190.3697357</v>
+        <v>253738.06706896302</v>
       </c>
       <c r="D5" s="0">
-        <v>3952344233.652369</v>
+        <v>317843.0365553422</v>
       </c>
       <c r="E5" s="0">
-        <v>23209137960.195225</v>
+        <v>1612109.4791750687</v>
       </c>
       <c r="F5" s="0">
-        <v>47158128171.962311</v>
+        <v>5694059.8174245395</v>
       </c>
       <c r="G5" s="0">
-        <v>10871348512.57962</v>
+        <v>3054987.7618992599</v>
       </c>
       <c r="H5" s="0">
-        <v>140717199440.90207</v>
+        <v>930878734.52182472</v>
       </c>
       <c r="I5" s="0">
-        <v>229296570929.38672</v>
+        <v>2356402234.4181113</v>
       </c>
       <c r="J5" s="0">
-        <v>37816448354.367188</v>
+        <v>886071304.40966976</v>
       </c>
     </row>
     <row r="6">
@@ -323,31 +323,31 @@
         <v>14</v>
       </c>
       <c r="B6" s="0">
-        <v>668111979.71766818</v>
+        <v>152883121.08405611</v>
       </c>
       <c r="C6" s="0">
-        <v>3496473590.1699481</v>
+        <v>302664799.66780752</v>
       </c>
       <c r="D6" s="0">
-        <v>2007819515.7601328</v>
+        <v>88062253.566877306</v>
       </c>
       <c r="E6" s="0">
-        <v>4061924444.1522408</v>
+        <v>4047238229.6884441</v>
       </c>
       <c r="F6" s="0">
-        <v>12896237163.414146</v>
+        <v>5937213642.0090742</v>
       </c>
       <c r="G6" s="0">
-        <v>5087578865.9901066</v>
+        <v>1030420156.0335828</v>
       </c>
       <c r="H6" s="0">
-        <v>50392738771.178604</v>
+        <v>59857871714.060799</v>
       </c>
       <c r="I6" s="0">
-        <v>65904171593.91761</v>
+        <v>69297430360.277695</v>
       </c>
       <c r="J6" s="0">
-        <v>12024149585.993107</v>
+        <v>5879004396.1246099</v>
       </c>
     </row>
     <row r="7">
@@ -458,7 +458,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" customWidth="true"/>
+    <col min="1" max="1" width="5.1796875" customWidth="true"/>
     <col min="2" max="2" width="11.453125" customWidth="true"/>
     <col min="3" max="3" width="11.453125" customWidth="true"/>
     <col min="4" max="4" width="11.453125" customWidth="true"/>
@@ -471,34 +471,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -571,31 +571,31 @@
         <v>12</v>
       </c>
       <c r="B4" s="0">
-        <v>13576.612462229508</v>
+        <v>1391.3589349466674</v>
       </c>
       <c r="C4" s="0">
-        <v>29264.078549193619</v>
+        <v>1658.0053209652262</v>
       </c>
       <c r="D4" s="0">
-        <v>10122.996432280997</v>
+        <v>173.67088049349979</v>
       </c>
       <c r="E4" s="0">
-        <v>25979.062074385733</v>
+        <v>2148.5506931158416</v>
       </c>
       <c r="F4" s="0">
-        <v>62207.435152654187</v>
+        <v>3541.5015520947763</v>
       </c>
       <c r="G4" s="0">
-        <v>18223.229410031585</v>
+        <v>906.23431619907763</v>
       </c>
       <c r="H4" s="0">
-        <v>310602.2845885852</v>
+        <v>81049.856852015699</v>
       </c>
       <c r="I4" s="0">
-        <v>551986.85908194596</v>
+        <v>112161.0157696083</v>
       </c>
       <c r="J4" s="0">
-        <v>160965.60336454809</v>
+        <v>16601.48775539314</v>
       </c>
     </row>
     <row r="5">
@@ -603,31 +603,31 @@
         <v>13</v>
       </c>
       <c r="B5" s="0">
-        <v>1550.3565507912263</v>
+        <v>1196.7808085477</v>
       </c>
       <c r="C5" s="0">
-        <v>4468.0692440229159</v>
+        <v>1363.8067431749873</v>
       </c>
       <c r="D5" s="0">
-        <v>1583.2312823441143</v>
+        <v>93.025715792832571</v>
       </c>
       <c r="E5" s="0">
-        <v>12179.301915193164</v>
+        <v>1611.1480535564519</v>
       </c>
       <c r="F5" s="0">
-        <v>21868.910453570665</v>
+        <v>1918.4810976433448</v>
       </c>
       <c r="G5" s="0">
-        <v>4218.6474771934991</v>
+        <v>246.71787116407228</v>
       </c>
       <c r="H5" s="0">
-        <v>160704.63188708774</v>
+        <v>91524.008651751108</v>
       </c>
       <c r="I5" s="0">
-        <v>208928.59121272305</v>
+        <v>174192.89776258657</v>
       </c>
       <c r="J5" s="0">
-        <v>29596.579231705924</v>
+        <v>61563.494830298492</v>
       </c>
     </row>
     <row r="6">
@@ -635,31 +635,31 @@
         <v>14</v>
       </c>
       <c r="B6" s="0">
-        <v>343.83490391829696</v>
+        <v>1420.5429872092393</v>
       </c>
       <c r="C6" s="0">
-        <v>1682.0306990362237</v>
+        <v>1549.1924471543157</v>
       </c>
       <c r="D6" s="0">
-        <v>1233.4756135994958</v>
+        <v>85.047404034043709</v>
       </c>
       <c r="E6" s="0">
-        <v>888.38341502588582</v>
+        <v>3291.9357886879557</v>
       </c>
       <c r="F6" s="0">
-        <v>6211.818551050038</v>
+        <v>5115.0209739978172</v>
       </c>
       <c r="G6" s="0">
-        <v>2708.581595291435</v>
+        <v>1186.4437708727098</v>
       </c>
       <c r="H6" s="0">
-        <v>60310.235896746315</v>
+        <v>135989.31770419289</v>
       </c>
       <c r="I6" s="0">
-        <v>85827.168795525751</v>
+        <v>195345.30688100029</v>
       </c>
       <c r="J6" s="0">
-        <v>17152.705598064633</v>
+        <v>24985.006006763357</v>
       </c>
     </row>
     <row r="7">
@@ -770,9 +770,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" customWidth="true"/>
-    <col min="2" max="2" width="14.453125" customWidth="true"/>
-    <col min="3" max="3" width="15.453125" customWidth="true"/>
+    <col min="1" max="1" width="5.1796875" customWidth="true"/>
+    <col min="2" max="2" width="11.453125" customWidth="true"/>
+    <col min="3" max="3" width="11.453125" customWidth="true"/>
     <col min="4" max="4" width="11.453125" customWidth="true"/>
     <col min="5" max="5" width="15.453125" customWidth="true"/>
     <col min="6" max="6" width="15.453125" customWidth="true"/>
@@ -783,34 +783,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -883,31 +883,31 @@
         <v>12</v>
       </c>
       <c r="B4" s="0">
-        <v>13528682096.16057</v>
+        <v>6556012.258466688</v>
       </c>
       <c r="C4" s="0">
-        <v>26049635857.394363</v>
+        <v>166795877.03926283</v>
       </c>
       <c r="D4" s="0">
-        <v>7114375545.1643705</v>
+        <v>124941021.92606369</v>
       </c>
       <c r="E4" s="0">
-        <v>70646512969.422974</v>
+        <v>151555829.08558384</v>
       </c>
       <c r="F4" s="0">
-        <v>133928215273.88739</v>
+        <v>654355586.676543</v>
       </c>
       <c r="G4" s="0">
-        <v>23974208890.876297</v>
+        <v>369881881.11692369</v>
       </c>
       <c r="H4" s="0">
-        <v>230681107395.04977</v>
+        <v>2852158090.4732561</v>
       </c>
       <c r="I4" s="0">
-        <v>352093127287.4021</v>
+        <v>6392349757.3949776</v>
       </c>
       <c r="J4" s="0">
-        <v>33995008578.533268</v>
+        <v>2473435037.6160989</v>
       </c>
     </row>
     <row r="5">
@@ -915,31 +915,31 @@
         <v>13</v>
       </c>
       <c r="B5" s="0">
-        <v>346048299.70382822</v>
+        <v>803560.623573847</v>
       </c>
       <c r="C5" s="0">
-        <v>1247530794.4943681</v>
+        <v>12893746.804903705</v>
       </c>
       <c r="D5" s="0">
-        <v>493882001.818497</v>
+        <v>13078896.61309058</v>
       </c>
       <c r="E5" s="0">
-        <v>12148433650.940477</v>
+        <v>5803251.5560572892</v>
       </c>
       <c r="F5" s="0">
-        <v>28903075305.774773</v>
+        <v>73027239.801487431</v>
       </c>
       <c r="G5" s="0">
-        <v>8443649092.9134922</v>
+        <v>42809710.462013252</v>
       </c>
       <c r="H5" s="0">
-        <v>108394806550.2187</v>
+        <v>291732944.00055248</v>
       </c>
       <c r="I5" s="0">
-        <v>168760250727.33954</v>
+        <v>680078422.79064012</v>
       </c>
       <c r="J5" s="0">
-        <v>27208477662.346729</v>
+        <v>284564735.49679536</v>
       </c>
     </row>
     <row r="6">
@@ -947,31 +947,31 @@
         <v>14</v>
       </c>
       <c r="B6" s="0">
-        <v>5166751.8845177703</v>
+        <v>1503384.248120083</v>
       </c>
       <c r="C6" s="0">
-        <v>99447931.875183403</v>
+        <v>4895443.3389384653</v>
       </c>
       <c r="D6" s="0">
-        <v>85080817.485231012</v>
+        <v>2321972.0336732878</v>
       </c>
       <c r="E6" s="0">
-        <v>84011815.381898105</v>
+        <v>123832948.92449886</v>
       </c>
       <c r="F6" s="0">
-        <v>2290815959.4938097</v>
+        <v>204546811.27860308</v>
       </c>
       <c r="G6" s="0">
-        <v>2657600709.9688511</v>
+        <v>34666424.807527788</v>
       </c>
       <c r="H6" s="0">
-        <v>3552510598.2485781</v>
+        <v>4426873253.8773308</v>
       </c>
       <c r="I6" s="0">
-        <v>16666676671.597332</v>
+        <v>7253806399.099843</v>
       </c>
       <c r="J6" s="0">
-        <v>8216967400.6937122</v>
+        <v>1149302659.0644362</v>
       </c>
     </row>
     <row r="7">
@@ -1082,47 +1082,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" customWidth="true"/>
+    <col min="1" max="1" width="5.1796875" customWidth="true"/>
     <col min="2" max="2" width="11.453125" customWidth="true"/>
-    <col min="3" max="3" width="15.453125" customWidth="true"/>
-    <col min="4" max="4" width="15.453125" customWidth="true"/>
-    <col min="5" max="5" width="15.453125" customWidth="true"/>
+    <col min="3" max="3" width="11.453125" customWidth="true"/>
+    <col min="4" max="4" width="11.453125" customWidth="true"/>
+    <col min="5" max="5" width="11.453125" customWidth="true"/>
     <col min="6" max="6" width="15.453125" customWidth="true"/>
-    <col min="7" max="7" width="15.453125" customWidth="true"/>
+    <col min="7" max="7" width="11.453125" customWidth="true"/>
     <col min="8" max="8" width="15.453125" customWidth="true"/>
     <col min="9" max="9" width="15.453125" customWidth="true"/>
-    <col min="10" max="10" width="15.453125" customWidth="true"/>
+    <col min="10" max="10" width="14.453125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1195,31 +1195,31 @@
         <v>12</v>
       </c>
       <c r="B4" s="0">
-        <v>6635854096.5446415</v>
+        <v>123472.51372576525</v>
       </c>
       <c r="C4" s="0">
-        <v>30271480523.070244</v>
+        <v>6723900.2893362828</v>
       </c>
       <c r="D4" s="0">
-        <v>15519727549.476768</v>
+        <v>22729525.375756092</v>
       </c>
       <c r="E4" s="0">
-        <v>28784752860.605915</v>
+        <v>2016857.8669180756</v>
       </c>
       <c r="F4" s="0">
-        <v>76625521223.033783</v>
+        <v>73457798.630408958</v>
       </c>
       <c r="G4" s="0">
-        <v>26063281717.297695</v>
+        <v>69138756.614617541</v>
       </c>
       <c r="H4" s="0">
-        <v>37374427335.194771</v>
+        <v>49299908.080049165</v>
       </c>
       <c r="I4" s="0">
-        <v>88662766699.690506</v>
+        <v>269988149.72976238</v>
       </c>
       <c r="J4" s="0">
-        <v>16423776225.760393</v>
+        <v>300740714.61666453</v>
       </c>
     </row>
     <row r="5">
@@ -1227,31 +1227,31 @@
         <v>13</v>
       </c>
       <c r="B5" s="0">
-        <v>223126593.2710169</v>
+        <v>22679.87753721292</v>
       </c>
       <c r="C5" s="0">
-        <v>838072174.8254931</v>
+        <v>235391.60604608795</v>
       </c>
       <c r="D5" s="0">
-        <v>481169409.5787921</v>
+        <v>814337.41690345563</v>
       </c>
       <c r="E5" s="0">
-        <v>1800334599.9722397</v>
+        <v>24059.401539056587</v>
       </c>
       <c r="F5" s="0">
-        <v>7361640914.7107906</v>
+        <v>133278.01131312203</v>
       </c>
       <c r="G5" s="0">
-        <v>3738879684.3497715</v>
+        <v>112934.4255194929</v>
       </c>
       <c r="H5" s="0">
-        <v>15411426169.173052</v>
+        <v>49922.557698647128</v>
       </c>
       <c r="I5" s="0">
-        <v>35122155040.776459</v>
+        <v>141992.60459107428</v>
       </c>
       <c r="J5" s="0">
-        <v>7276643257.9523487</v>
+        <v>100856.32798446552</v>
       </c>
     </row>
     <row r="6">
@@ -1259,31 +1259,31 @@
         <v>14</v>
       </c>
       <c r="B6" s="0">
-        <v>45218.173699592364</v>
+        <v>30738.273415247448</v>
       </c>
       <c r="C6" s="0">
-        <v>32625362.633613255</v>
+        <v>53634.226961719731</v>
       </c>
       <c r="D6" s="0">
-        <v>99669805.345570788</v>
+        <v>14462.975779711594</v>
       </c>
       <c r="E6" s="0">
-        <v>340329.99996911973</v>
+        <v>598947.79709210002</v>
       </c>
       <c r="F6" s="0">
-        <v>401142781.52695125</v>
+        <v>1729661.1407724631</v>
       </c>
       <c r="G6" s="0">
-        <v>831754086.49972713</v>
+        <v>842289.89963302354</v>
       </c>
       <c r="H6" s="0">
-        <v>243336197.0196763</v>
+        <v>54423645.8447771</v>
       </c>
       <c r="I6" s="0">
-        <v>2505230266.0161223</v>
+        <v>127990181.99912211</v>
       </c>
       <c r="J6" s="0">
-        <v>1530404380.9678066</v>
+        <v>41351510.171935432</v>
       </c>
     </row>
     <row r="7">
@@ -1394,7 +1394,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" customWidth="true"/>
+    <col min="1" max="1" width="5.1796875" customWidth="true"/>
     <col min="2" max="2" width="11.453125" customWidth="true"/>
     <col min="3" max="3" width="11.453125" customWidth="true"/>
     <col min="4" max="4" width="11.453125" customWidth="true"/>
@@ -1407,34 +1407,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1507,31 +1507,31 @@
         <v>12</v>
       </c>
       <c r="B4" s="0">
-        <v>198402.38408493731</v>
+        <v>66154.691212217003</v>
       </c>
       <c r="C4" s="0">
-        <v>25512664.204555791</v>
+        <v>488280.33689740469</v>
       </c>
       <c r="D4" s="0">
-        <v>30821180.677261163</v>
+        <v>458893.40439482022</v>
       </c>
       <c r="E4" s="0">
-        <v>4981708.1769850878</v>
+        <v>344215.64578975725</v>
       </c>
       <c r="F4" s="0">
-        <v>131904938.6189311</v>
+        <v>2942926.1882115235</v>
       </c>
       <c r="G4" s="0">
-        <v>126404329.36522664</v>
+        <v>1920394.6918063906</v>
       </c>
       <c r="H4" s="0">
-        <v>16631737.563831555</v>
+        <v>3676594.6697911364</v>
       </c>
       <c r="I4" s="0">
-        <v>197222189.78757817</v>
+        <v>11359827.935689252</v>
       </c>
       <c r="J4" s="0">
-        <v>150002541.34064674</v>
+        <v>3753688.6658257716</v>
       </c>
     </row>
     <row r="5">
@@ -1539,31 +1539,31 @@
         <v>13</v>
       </c>
       <c r="B5" s="0">
-        <v>250460.48885531304</v>
+        <v>12577.691766745225</v>
       </c>
       <c r="C5" s="0">
-        <v>1748929.2900427876</v>
+        <v>466709.0964168107</v>
       </c>
       <c r="D5" s="0">
-        <v>793344.11816430814</v>
+        <v>633589.30551730434</v>
       </c>
       <c r="E5" s="0">
-        <v>9151350.2954340335</v>
+        <v>175122.59061816786</v>
       </c>
       <c r="F5" s="0">
-        <v>25326142.85607677</v>
+        <v>1070985.8717742192</v>
       </c>
       <c r="G5" s="0">
-        <v>13351184.516236508</v>
+        <v>843924.86167758959</v>
       </c>
       <c r="H5" s="0">
-        <v>86135220.354325473</v>
+        <v>1604488.7286610119</v>
       </c>
       <c r="I5" s="0">
-        <v>144389802.86168602</v>
+        <v>4073897.818002902</v>
       </c>
       <c r="J5" s="0">
-        <v>46872524.557107419</v>
+        <v>1456356.4694301304</v>
       </c>
     </row>
     <row r="6">
@@ -1571,31 +1571,31 @@
         <v>14</v>
       </c>
       <c r="B6" s="0">
-        <v>4910.7414169387694</v>
+        <v>5284.6097890306082</v>
       </c>
       <c r="C6" s="0">
-        <v>696029.92883202585</v>
+        <v>33994.260981346211</v>
       </c>
       <c r="D6" s="0">
-        <v>770311.25596369163</v>
+        <v>21132.54693719533</v>
       </c>
       <c r="E6" s="0">
-        <v>25444.809727303094</v>
+        <v>83590.199381211583</v>
       </c>
       <c r="F6" s="0">
-        <v>1604738.990890163</v>
+        <v>502532.58164952399</v>
       </c>
       <c r="G6" s="0">
-        <v>1760461.3851791811</v>
+        <v>283431.19004013779</v>
       </c>
       <c r="H6" s="0">
-        <v>2601413.6300453353</v>
+        <v>2890731.549955714</v>
       </c>
       <c r="I6" s="0">
-        <v>9326191.8443852942</v>
+        <v>9138689.3261174783</v>
       </c>
       <c r="J6" s="0">
-        <v>5354756.6099438379</v>
+        <v>2729957.6780171581</v>
       </c>
     </row>
     <row r="7">
@@ -1706,47 +1706,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" customWidth="true"/>
+    <col min="1" max="1" width="5.1796875" customWidth="true"/>
     <col min="2" max="2" width="11.453125" customWidth="true"/>
     <col min="3" max="3" width="11.453125" customWidth="true"/>
     <col min="4" max="4" width="11.453125" customWidth="true"/>
     <col min="5" max="5" width="11.453125" customWidth="true"/>
-    <col min="6" max="6" width="15.453125" customWidth="true"/>
+    <col min="6" max="6" width="11.453125" customWidth="true"/>
     <col min="7" max="7" width="11.453125" customWidth="true"/>
-    <col min="8" max="8" width="15.453125" customWidth="true"/>
+    <col min="8" max="8" width="11.453125" customWidth="true"/>
     <col min="9" max="9" width="15.453125" customWidth="true"/>
     <col min="10" max="10" width="11.453125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1819,31 +1819,31 @@
         <v>12</v>
       </c>
       <c r="B4" s="0">
-        <v>119562564.31293331</v>
+        <v>19772.614391940868</v>
       </c>
       <c r="C4" s="0">
-        <v>5895251487.2893238</v>
+        <v>133011.27946684128</v>
       </c>
       <c r="D4" s="0">
-        <v>3402193627.8909883</v>
+        <v>131338.7138471168</v>
       </c>
       <c r="E4" s="0">
-        <v>7332242365.2112942</v>
+        <v>124779.46299391043</v>
       </c>
       <c r="F4" s="0">
-        <v>22439185693.279202</v>
+        <v>5075851.041676376</v>
       </c>
       <c r="G4" s="0">
-        <v>9170046287.2817478</v>
+        <v>14740275.853674304</v>
       </c>
       <c r="H4" s="0">
-        <v>19986055592.447113</v>
+        <v>4850490.1723075174</v>
       </c>
       <c r="I4" s="0">
-        <v>41070667320.754814</v>
+        <v>44671763.117007464</v>
       </c>
       <c r="J4" s="0">
-        <v>9329065306.679081</v>
+        <v>38465348.52375485</v>
       </c>
     </row>
     <row r="5">
@@ -1851,31 +1851,31 @@
         <v>13</v>
       </c>
       <c r="B5" s="0">
-        <v>9547080.3215048648</v>
+        <v>8834.9778455989454</v>
       </c>
       <c r="C5" s="0">
-        <v>127488110.58905752</v>
+        <v>33407.011599209989</v>
       </c>
       <c r="D5" s="0">
-        <v>83910277.51369451</v>
+        <v>24768.35922065613</v>
       </c>
       <c r="E5" s="0">
-        <v>616831354.01249468</v>
+        <v>9451.2037346812649</v>
       </c>
       <c r="F5" s="0">
-        <v>3327737698.6525826</v>
+        <v>29180.464421748358</v>
       </c>
       <c r="G5" s="0">
-        <v>1551070823.925231</v>
+        <v>14505.107313803457</v>
       </c>
       <c r="H5" s="0">
-        <v>10688120792.969259</v>
+        <v>14726.81044684201</v>
       </c>
       <c r="I5" s="0">
-        <v>20701040166.845566</v>
+        <v>41503.725395734858</v>
       </c>
       <c r="J5" s="0">
-        <v>4588293619.0855103</v>
+        <v>18474.664334134897</v>
       </c>
     </row>
     <row r="6">
@@ -1883,31 +1883,31 @@
         <v>14</v>
       </c>
       <c r="B6" s="0">
-        <v>12848.243166831904</v>
+        <v>5633.9578023139447</v>
       </c>
       <c r="C6" s="0">
-        <v>659309.68013240967</v>
+        <v>12329.83006122993</v>
       </c>
       <c r="D6" s="0">
-        <v>1209284.3946880293</v>
+        <v>3933.1323878169069</v>
       </c>
       <c r="E6" s="0">
-        <v>34222.196917963069</v>
+        <v>33900.583445736658</v>
       </c>
       <c r="F6" s="0">
-        <v>82581720.602131099</v>
+        <v>71375.219975648259</v>
       </c>
       <c r="G6" s="0">
-        <v>171884043.05319878</v>
+        <v>17024.803335829594</v>
       </c>
       <c r="H6" s="0">
-        <v>12307207.608714093</v>
+        <v>1800219.5834559512</v>
       </c>
       <c r="I6" s="0">
-        <v>526974235.43015593</v>
+        <v>4712835.2999632899</v>
       </c>
       <c r="J6" s="0">
-        <v>916029568.68975258</v>
+        <v>1819164.0683139763</v>
       </c>
     </row>
     <row r="7">
@@ -2018,7 +2018,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" customWidth="true"/>
+    <col min="1" max="1" width="5.1796875" customWidth="true"/>
     <col min="2" max="2" width="11.453125" customWidth="true"/>
     <col min="3" max="3" width="11.453125" customWidth="true"/>
     <col min="4" max="4" width="11.453125" customWidth="true"/>
@@ -2031,34 +2031,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2131,31 +2131,31 @@
         <v>12</v>
       </c>
       <c r="B4" s="0">
-        <v>2965.5853576831742</v>
+        <v>2783.1635652802615</v>
       </c>
       <c r="C4" s="0">
-        <v>5715.9855311270603</v>
+        <v>3546.4858944948087</v>
       </c>
       <c r="D4" s="0">
-        <v>2330.8887604799575</v>
+        <v>488.00730141542078</v>
       </c>
       <c r="E4" s="0">
-        <v>6393.7317708869232</v>
+        <v>3945.1140585890621</v>
       </c>
       <c r="F4" s="0">
-        <v>9572.5291144480034</v>
+        <v>5023.6058382119354</v>
       </c>
       <c r="G4" s="0">
-        <v>1863.8273722124661</v>
+        <v>713.18102682068059</v>
       </c>
       <c r="H4" s="0">
-        <v>18210.743882814444</v>
+        <v>9334.4389827995092</v>
       </c>
       <c r="I4" s="0">
-        <v>35957.65199668557</v>
+        <v>11865.193545656186</v>
       </c>
       <c r="J4" s="0">
-        <v>8415.5572853710401</v>
+        <v>1561.3593424098806</v>
       </c>
     </row>
     <row r="5">
@@ -2163,31 +2163,31 @@
         <v>13</v>
       </c>
       <c r="B5" s="0">
-        <v>1680.0708683322136</v>
+        <v>2824.5100744483143</v>
       </c>
       <c r="C5" s="0">
-        <v>2227.1205105881031</v>
+        <v>3551.5722441895373</v>
       </c>
       <c r="D5" s="0">
-        <v>272.09501178456208</v>
+        <v>434.1254013607641</v>
       </c>
       <c r="E5" s="0">
-        <v>3044.6372077929309</v>
+        <v>3096.5507132694665</v>
       </c>
       <c r="F5" s="0">
-        <v>4680.9071329349254</v>
+        <v>4540.7879035757387</v>
       </c>
       <c r="G5" s="0">
-        <v>585.11274730092293</v>
+        <v>511.74148648678687</v>
       </c>
       <c r="H5" s="0">
-        <v>13000.873036306872</v>
+        <v>6690.5250858420013</v>
       </c>
       <c r="I5" s="0">
-        <v>17531.63225188162</v>
+        <v>8124.0324177709808</v>
       </c>
       <c r="J5" s="0">
-        <v>2248.0480226915238</v>
+        <v>753.13273587896401</v>
       </c>
     </row>
     <row r="6">
@@ -2195,31 +2195,31 @@
         <v>14</v>
       </c>
       <c r="B6" s="0">
-        <v>340.58916508326502</v>
+        <v>2041.6357964483084</v>
       </c>
       <c r="C6" s="0">
-        <v>939.49845992909229</v>
+        <v>2402.7990273132195</v>
       </c>
       <c r="D6" s="0">
-        <v>267.65912014466937</v>
+        <v>164.29574366299619</v>
       </c>
       <c r="E6" s="0">
-        <v>864.15043749229562</v>
+        <v>2810.5697739835809</v>
       </c>
       <c r="F6" s="0">
-        <v>1616.6595128835938</v>
+        <v>3494.7444519055257</v>
       </c>
       <c r="G6" s="0">
-        <v>569.80269759785597</v>
+        <v>248.88004373732889</v>
       </c>
       <c r="H6" s="0">
-        <v>3591.0836205004316</v>
+        <v>7856.3511603233146</v>
       </c>
       <c r="I6" s="0">
-        <v>5414.7780677655783</v>
+        <v>8610.1515076293799</v>
       </c>
       <c r="J6" s="0">
-        <v>877.4437960830885</v>
+        <v>324.22450332320221</v>
       </c>
     </row>
     <row r="7">
@@ -2330,7 +2330,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" customWidth="true"/>
+    <col min="1" max="1" width="5.1796875" customWidth="true"/>
     <col min="2" max="2" width="11.453125" customWidth="true"/>
     <col min="3" max="3" width="11.453125" customWidth="true"/>
     <col min="4" max="4" width="11.453125" customWidth="true"/>
@@ -2343,34 +2343,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2443,31 +2443,31 @@
         <v>12</v>
       </c>
       <c r="B4" s="0">
-        <v>1230.0329366202172</v>
+        <v>1980.125409430007</v>
       </c>
       <c r="C4" s="0">
-        <v>12426.062606013815</v>
+        <v>2464.4933964511683</v>
       </c>
       <c r="D4" s="0">
-        <v>20871.644600770858</v>
+        <v>242.18850116743053</v>
       </c>
       <c r="E4" s="0">
-        <v>8370.4003954089676</v>
+        <v>2810.9947394213318</v>
       </c>
       <c r="F4" s="0">
-        <v>731632.29692911205</v>
+        <v>3849.1947152552721</v>
       </c>
       <c r="G4" s="0">
-        <v>1202158.2749813134</v>
+        <v>535.36602306977966</v>
       </c>
       <c r="H4" s="0">
-        <v>922417.25100670033</v>
+        <v>6943.516636072939</v>
       </c>
       <c r="I4" s="0">
-        <v>26346778.520044487</v>
+        <v>8584.291613440977</v>
       </c>
       <c r="J4" s="0">
-        <v>35946438.196396559</v>
+        <v>1370.3883480502325</v>
       </c>
     </row>
     <row r="5">
@@ -2475,31 +2475,31 @@
         <v>13</v>
       </c>
       <c r="B5" s="0">
-        <v>716.89009888411829</v>
+        <v>2292.989118878058</v>
       </c>
       <c r="C5" s="0">
-        <v>1152.1238989654239</v>
+        <v>2803.8981250328316</v>
       </c>
       <c r="D5" s="0">
-        <v>186.94728627233278</v>
+        <v>297.95813105436287</v>
       </c>
       <c r="E5" s="0">
-        <v>3121.2845819516788</v>
+        <v>2974.7006573611402</v>
       </c>
       <c r="F5" s="0">
-        <v>7402.797369985793</v>
+        <v>3552.4693519822063</v>
       </c>
       <c r="G5" s="0">
-        <v>4439.0903122199807</v>
+        <v>409.87916146663753</v>
       </c>
       <c r="H5" s="0">
-        <v>564359.47182556661</v>
+        <v>4500.5485666226814</v>
       </c>
       <c r="I5" s="0">
-        <v>3989071.5788667891</v>
+        <v>5985.9729528852558</v>
       </c>
       <c r="J5" s="0">
-        <v>2756443.6324871471</v>
+        <v>744.63379625665232</v>
       </c>
     </row>
     <row r="6">
@@ -2507,31 +2507,31 @@
         <v>14</v>
       </c>
       <c r="B6" s="0">
-        <v>93.831532368499211</v>
+        <v>1818.5808100756028</v>
       </c>
       <c r="C6" s="0">
-        <v>354.45536219048273</v>
+        <v>1952.8428448668515</v>
       </c>
       <c r="D6" s="0">
-        <v>145.16162171986232</v>
+        <v>64.021797183726335</v>
       </c>
       <c r="E6" s="0">
-        <v>540.91123954882869</v>
+        <v>2750.0133480982076</v>
       </c>
       <c r="F6" s="0">
-        <v>1351.4178438975537</v>
+        <v>3083.829590029537</v>
       </c>
       <c r="G6" s="0">
-        <v>443.76396156249865</v>
+        <v>145.46226926429895</v>
       </c>
       <c r="H6" s="0">
-        <v>2088.3357443723748</v>
+        <v>5654.7897059657844</v>
       </c>
       <c r="I6" s="0">
-        <v>4346.0750197483094</v>
+        <v>6558.5527340101653</v>
       </c>
       <c r="J6" s="0">
-        <v>1347.7512831007298</v>
+        <v>371.26200864177849</v>
       </c>
     </row>
     <row r="7">
@@ -2642,7 +2642,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" customWidth="true"/>
+    <col min="1" max="1" width="5.1796875" customWidth="true"/>
     <col min="2" max="2" width="11.453125" customWidth="true"/>
     <col min="3" max="3" width="11.453125" customWidth="true"/>
     <col min="4" max="4" width="11.453125" customWidth="true"/>
@@ -2655,34 +2655,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2755,31 +2755,31 @@
         <v>12</v>
       </c>
       <c r="B4" s="0">
-        <v>1673544.1999307296</v>
+        <v>89746.666267713139</v>
       </c>
       <c r="C4" s="0">
-        <v>164523669.28608495</v>
+        <v>1927883.4728936751</v>
       </c>
       <c r="D4" s="0">
-        <v>267542980.61294204</v>
+        <v>1740284.9159715944</v>
       </c>
       <c r="E4" s="0">
-        <v>55783004.914400943</v>
+        <v>1372258.175295654</v>
       </c>
       <c r="F4" s="0">
-        <v>590276077.04395974</v>
+        <v>16567409.473086333</v>
       </c>
       <c r="G4" s="0">
-        <v>653736008.44310308</v>
+        <v>13855551.231438991</v>
       </c>
       <c r="H4" s="0">
-        <v>55517903.373572357</v>
+        <v>4307351.1339523979</v>
       </c>
       <c r="I4" s="0">
-        <v>376258311.45734084</v>
+        <v>11036843.857370602</v>
       </c>
       <c r="J4" s="0">
-        <v>246078329.97503653</v>
+        <v>4730408.8816307774</v>
       </c>
     </row>
     <row r="5">
@@ -2787,31 +2787,31 @@
         <v>13</v>
       </c>
       <c r="B5" s="0">
-        <v>291076.35890255193</v>
+        <v>81139.287352101062</v>
       </c>
       <c r="C5" s="0">
-        <v>4632083.6169099193</v>
+        <v>1316342.1985686647</v>
       </c>
       <c r="D5" s="0">
-        <v>2682979.2008364093</v>
+        <v>1363185.3640240093</v>
       </c>
       <c r="E5" s="0">
-        <v>9735855.8715641256</v>
+        <v>753250.88056564657</v>
       </c>
       <c r="F5" s="0">
-        <v>49614009.995391391</v>
+        <v>2903906.432527937</v>
       </c>
       <c r="G5" s="0">
-        <v>22706288.524064858</v>
+        <v>2014825.190287652</v>
       </c>
       <c r="H5" s="0">
-        <v>41281699.540759973</v>
+        <v>1315432.4046669714</v>
       </c>
       <c r="I5" s="0">
-        <v>152258908.19652024</v>
+        <v>3028446.4972014846</v>
       </c>
       <c r="J5" s="0">
-        <v>59415705.995063774</v>
+        <v>1270545.5644761261</v>
       </c>
     </row>
     <row r="6">
@@ -2819,31 +2819,31 @@
         <v>14</v>
       </c>
       <c r="B6" s="0">
-        <v>147883.95801426345</v>
+        <v>85083.099201646139</v>
       </c>
       <c r="C6" s="0">
-        <v>2045695.6643044723</v>
+        <v>337172.63276566734</v>
       </c>
       <c r="D6" s="0">
-        <v>2090316.3733016588</v>
+        <v>183665.82187626083</v>
       </c>
       <c r="E6" s="0">
-        <v>1422371.1345602535</v>
+        <v>445159.65531411709</v>
       </c>
       <c r="F6" s="0">
-        <v>10628758.543306936</v>
+        <v>3167399.4760411144</v>
       </c>
       <c r="G6" s="0">
-        <v>12219997.042630812</v>
+        <v>1647408.6014341873</v>
       </c>
       <c r="H6" s="0">
-        <v>2279753.0681821671</v>
+        <v>4024581.9152189754</v>
       </c>
       <c r="I6" s="0">
-        <v>10388669.142298404</v>
+        <v>12028004.070426501</v>
       </c>
       <c r="J6" s="0">
-        <v>7098701.6913418854</v>
+        <v>4076472.4020608696</v>
       </c>
     </row>
     <row r="7">
@@ -2954,47 +2954,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" customWidth="true"/>
+    <col min="1" max="1" width="5.1796875" customWidth="true"/>
     <col min="2" max="2" width="11.453125" customWidth="true"/>
     <col min="3" max="3" width="11.453125" customWidth="true"/>
     <col min="4" max="4" width="11.453125" customWidth="true"/>
     <col min="5" max="5" width="11.453125" customWidth="true"/>
-    <col min="6" max="6" width="15.453125" customWidth="true"/>
+    <col min="6" max="6" width="11.453125" customWidth="true"/>
     <col min="7" max="7" width="11.453125" customWidth="true"/>
-    <col min="8" max="8" width="15.453125" customWidth="true"/>
+    <col min="8" max="8" width="11.453125" customWidth="true"/>
     <col min="9" max="9" width="15.453125" customWidth="true"/>
     <col min="10" max="10" width="11.453125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3067,31 +3067,31 @@
         <v>12</v>
       </c>
       <c r="B4" s="0">
-        <v>229355864.6384615</v>
+        <v>96071.359380096736</v>
       </c>
       <c r="C4" s="0">
-        <v>6661322259.7568054</v>
+        <v>4361092.9213764258</v>
       </c>
       <c r="D4" s="0">
-        <v>4094167847.0529561</v>
+        <v>2971229.2633196209</v>
       </c>
       <c r="E4" s="0">
-        <v>2078405290.9938908</v>
+        <v>455910.88136980869</v>
       </c>
       <c r="F4" s="0">
-        <v>11653277621.249674</v>
+        <v>11365531.642299652</v>
       </c>
       <c r="G4" s="0">
-        <v>4552822496.6358938</v>
+        <v>8749044.6864901613</v>
       </c>
       <c r="H4" s="0">
-        <v>25358141907.184105</v>
+        <v>7622119.2830273854</v>
       </c>
       <c r="I4" s="0">
-        <v>44040893649.454414</v>
+        <v>72516285.016068608</v>
       </c>
       <c r="J4" s="0">
-        <v>9591420896.1130714</v>
+        <v>48510512.281628318</v>
       </c>
     </row>
     <row r="5">
@@ -3099,31 +3099,31 @@
         <v>13</v>
       </c>
       <c r="B5" s="0">
-        <v>58030090.320590287</v>
+        <v>7165.1699938929496</v>
       </c>
       <c r="C5" s="0">
-        <v>199194944.37669832</v>
+        <v>456935.74943446071</v>
       </c>
       <c r="D5" s="0">
-        <v>93569492.105491593</v>
+        <v>517576.13287781866</v>
       </c>
       <c r="E5" s="0">
-        <v>299495387.18498468</v>
+        <v>29826.952209437823</v>
       </c>
       <c r="F5" s="0">
-        <v>1550908440.2201109</v>
+        <v>421177.66044014948</v>
       </c>
       <c r="G5" s="0">
-        <v>795630197.77768302</v>
+        <v>524294.55658895487</v>
       </c>
       <c r="H5" s="0">
-        <v>13155421703.672522</v>
+        <v>463294.3815005793</v>
       </c>
       <c r="I5" s="0">
-        <v>24283097977.4827</v>
+        <v>3107481.9908466935</v>
       </c>
       <c r="J5" s="0">
-        <v>4860084628.4521284</v>
+        <v>2495418.4346172474</v>
       </c>
     </row>
     <row r="6">
@@ -3131,31 +3131,31 @@
         <v>14</v>
       </c>
       <c r="B6" s="0">
-        <v>15074.606823636197</v>
+        <v>3123.5519625729266</v>
       </c>
       <c r="C6" s="0">
-        <v>3608223.94304311</v>
+        <v>11132.50582324696</v>
       </c>
       <c r="D6" s="0">
-        <v>9045757.8762423601</v>
+        <v>6907.8638178859319</v>
       </c>
       <c r="E6" s="0">
-        <v>26184.358281037483</v>
+        <v>19439.069571202919</v>
       </c>
       <c r="F6" s="0">
-        <v>3962288.8175682011</v>
+        <v>112544.12090336358</v>
       </c>
       <c r="G6" s="0">
-        <v>6408485.5421989094</v>
+        <v>61922.492940134507</v>
       </c>
       <c r="H6" s="0">
-        <v>18288760.959550042</v>
+        <v>5441277.3683406608</v>
       </c>
       <c r="I6" s="0">
-        <v>548269710.97688806</v>
+        <v>16275497.263977718</v>
       </c>
       <c r="J6" s="0">
-        <v>700205656.25158656</v>
+        <v>4772388.7673198925</v>
       </c>
     </row>
     <row r="7">
@@ -3266,7 +3266,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" customWidth="true"/>
+    <col min="1" max="1" width="5.1796875" customWidth="true"/>
     <col min="2" max="2" width="11.453125" customWidth="true"/>
     <col min="3" max="3" width="11.453125" customWidth="true"/>
     <col min="4" max="4" width="11.453125" customWidth="true"/>
@@ -3279,34 +3279,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3379,31 +3379,31 @@
         <v>12</v>
       </c>
       <c r="B4" s="0">
-        <v>691.96674597806486</v>
+        <v>2359.0656057376727</v>
       </c>
       <c r="C4" s="0">
-        <v>1202.1485387831769</v>
+        <v>2663.3295460586774</v>
       </c>
       <c r="D4" s="0">
-        <v>202.58830380686422</v>
+        <v>170.12134236026895</v>
       </c>
       <c r="E4" s="0">
-        <v>1689.5608551847808</v>
+        <v>2897.4100734127251</v>
       </c>
       <c r="F4" s="0">
-        <v>2357.8903336108315</v>
+        <v>3593.623723544174</v>
       </c>
       <c r="G4" s="0">
-        <v>290.65285219484718</v>
+        <v>287.88565307113925</v>
       </c>
       <c r="H4" s="0">
-        <v>5404.499874611347</v>
+        <v>4726.8967227732492</v>
       </c>
       <c r="I4" s="0">
-        <v>6273.6104185775748</v>
+        <v>6258.8851548963639</v>
       </c>
       <c r="J4" s="0">
-        <v>377.02959238440542</v>
+        <v>720.67944566750066</v>
       </c>
     </row>
     <row r="5">
@@ -3411,31 +3411,31 @@
         <v>13</v>
       </c>
       <c r="B5" s="0">
-        <v>463.51600136442357</v>
+        <v>2493.4891770940462</v>
       </c>
       <c r="C5" s="0">
-        <v>915.00829467344988</v>
+        <v>3235.2529213072507</v>
       </c>
       <c r="D5" s="0">
-        <v>155.98915133491877</v>
+        <v>381.87739850796993</v>
       </c>
       <c r="E5" s="0">
-        <v>1531.0336660508788</v>
+        <v>3350.0172391122564</v>
       </c>
       <c r="F5" s="0">
-        <v>2296.1665022477528</v>
+        <v>3787.8100886242391</v>
       </c>
       <c r="G5" s="0">
-        <v>239.14621834862635</v>
+        <v>161.12795229851335</v>
       </c>
       <c r="H5" s="0">
-        <v>5303.7096389322596</v>
+        <v>5112.9294119486403</v>
       </c>
       <c r="I5" s="0">
-        <v>5971.7963931988597</v>
+        <v>6340.3390771899203</v>
       </c>
       <c r="J5" s="0">
-        <v>286.64383810412693</v>
+        <v>963.23109635906587</v>
       </c>
     </row>
     <row r="6">
@@ -3443,31 +3443,31 @@
         <v>14</v>
       </c>
       <c r="B6" s="0">
-        <v>283.16742079900087</v>
+        <v>2159.2903481706398</v>
       </c>
       <c r="C6" s="0">
-        <v>471.23165457096269</v>
+        <v>2324.8598921369367</v>
       </c>
       <c r="D6" s="0">
-        <v>177.176999261476</v>
+        <v>82.40144476908489</v>
       </c>
       <c r="E6" s="0">
-        <v>531.29159299185085</v>
+        <v>2857.0362883825387</v>
       </c>
       <c r="F6" s="0">
-        <v>1066.4553059066925</v>
+        <v>3117.3499367296654</v>
       </c>
       <c r="G6" s="0">
-        <v>360.85399584397567</v>
+        <v>131.91575453375555</v>
       </c>
       <c r="H6" s="0">
-        <v>2325.5812645417573</v>
+        <v>5243.6313189280409</v>
       </c>
       <c r="I6" s="0">
-        <v>3644.0218933386091</v>
+        <v>5754.2596280935413</v>
       </c>
       <c r="J6" s="0">
-        <v>1194.8600695941495</v>
+        <v>236.87725932080153</v>
       </c>
     </row>
     <row r="7">
@@ -3578,7 +3578,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" customWidth="true"/>
+    <col min="1" max="1" width="5.1796875" customWidth="true"/>
     <col min="2" max="2" width="11.453125" customWidth="true"/>
     <col min="3" max="3" width="11.453125" customWidth="true"/>
     <col min="4" max="4" width="11.453125" customWidth="true"/>
@@ -3591,34 +3591,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3691,31 +3691,31 @@
         <v>12</v>
       </c>
       <c r="B4" s="0">
-        <v>119385.82479375921</v>
+        <v>34841.990689379927</v>
       </c>
       <c r="C4" s="0">
-        <v>279315.83899975306</v>
+        <v>46624.592163546993</v>
       </c>
       <c r="D4" s="0">
-        <v>262120.30196724235</v>
+        <v>6333.7756967023643</v>
       </c>
       <c r="E4" s="0">
-        <v>309138.02584871632</v>
+        <v>112071.86761760344</v>
       </c>
       <c r="F4" s="0">
-        <v>417776.62487287365</v>
+        <v>143094.30696683854</v>
       </c>
       <c r="G4" s="0">
-        <v>72814.00649506622</v>
+        <v>20194.768846108462</v>
       </c>
       <c r="H4" s="0">
-        <v>721730.32518641348</v>
+        <v>311895.40516041504</v>
       </c>
       <c r="I4" s="0">
-        <v>916310.457366199</v>
+        <v>347931.56385248672</v>
       </c>
       <c r="J4" s="0">
-        <v>103473.1309102982</v>
+        <v>22286.094333576173</v>
       </c>
     </row>
     <row r="5">
@@ -3723,31 +3723,31 @@
         <v>13</v>
       </c>
       <c r="B5" s="0">
-        <v>82180.262991250594</v>
+        <v>31534.801300569779</v>
       </c>
       <c r="C5" s="0">
-        <v>117427.85240863006</v>
+        <v>45860.355903206182</v>
       </c>
       <c r="D5" s="0">
-        <v>13044.603196374246</v>
+        <v>6863.6760666426471</v>
       </c>
       <c r="E5" s="0">
-        <v>199785.34887440177</v>
+        <v>214744.96809674494</v>
       </c>
       <c r="F5" s="0">
-        <v>246929.0823474481</v>
+        <v>341422.57726494485</v>
       </c>
       <c r="G5" s="0">
-        <v>25338.868311358969</v>
+        <v>93076.409914528049</v>
       </c>
       <c r="H5" s="0">
-        <v>538720.4653514009</v>
+        <v>334979.16487850109</v>
       </c>
       <c r="I5" s="0">
-        <v>622880.60963637487</v>
+        <v>468347.80617207737</v>
       </c>
       <c r="J5" s="0">
-        <v>43824.403455405016</v>
+        <v>191601.47840266305</v>
       </c>
     </row>
     <row r="6">
@@ -3755,31 +3755,31 @@
         <v>14</v>
       </c>
       <c r="B6" s="0">
-        <v>33115.695576041064</v>
+        <v>95157.46846483837</v>
       </c>
       <c r="C6" s="0">
-        <v>58484.295575156873</v>
+        <v>130918.22118563903</v>
       </c>
       <c r="D6" s="0">
-        <v>12437.406152520318</v>
+        <v>21822.150282951956</v>
       </c>
       <c r="E6" s="0">
-        <v>112464.04490599084</v>
+        <v>237064.56216114789</v>
       </c>
       <c r="F6" s="0">
-        <v>150911.05167336165</v>
+        <v>288896.19336179842</v>
       </c>
       <c r="G6" s="0">
-        <v>19919.335680364678</v>
+        <v>31921.995360658912</v>
       </c>
       <c r="H6" s="0">
-        <v>324971.26130342408</v>
+        <v>618856.29905887425</v>
       </c>
       <c r="I6" s="0">
-        <v>484806.78143698093</v>
+        <v>748583.10847565217</v>
       </c>
       <c r="J6" s="0">
-        <v>83222.084066300391</v>
+        <v>55628.555339389954</v>
       </c>
     </row>
     <row r="7">
@@ -3890,7 +3890,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" customWidth="true"/>
+    <col min="1" max="1" width="5.1796875" customWidth="true"/>
     <col min="2" max="2" width="11.453125" customWidth="true"/>
     <col min="3" max="3" width="11.453125" customWidth="true"/>
     <col min="4" max="4" width="11.453125" customWidth="true"/>
@@ -3903,34 +3903,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4003,31 +4003,31 @@
         <v>12</v>
       </c>
       <c r="B4" s="0">
-        <v>581.17270789505028</v>
+        <v>2446.3257268360076</v>
       </c>
       <c r="C4" s="0">
-        <v>767.45396906920496</v>
+        <v>2526.5745935325654</v>
       </c>
       <c r="D4" s="0">
-        <v>82.803650744976039</v>
+        <v>44.715361374043383</v>
       </c>
       <c r="E4" s="0">
-        <v>1120.3033620010206</v>
+        <v>2687.6489554875316</v>
       </c>
       <c r="F4" s="0">
-        <v>1380.3490835580442</v>
+        <v>2844.581272012701</v>
       </c>
       <c r="G4" s="0">
-        <v>110.46072935665842</v>
+        <v>86.181143923457057</v>
       </c>
       <c r="H4" s="0">
-        <v>2726.8676717150938</v>
+        <v>3676.2316163103942</v>
       </c>
       <c r="I4" s="0">
-        <v>3255.3911153143404</v>
+        <v>3984.6513090224948</v>
       </c>
       <c r="J4" s="0">
-        <v>243.76167455255575</v>
+        <v>183.47605119458245</v>
       </c>
     </row>
     <row r="5">
@@ -4035,31 +4035,31 @@
         <v>13</v>
       </c>
       <c r="B5" s="0">
-        <v>390.88874138203482</v>
+        <v>2471.6178437414242</v>
       </c>
       <c r="C5" s="0">
-        <v>529.74238581008331</v>
+        <v>2583.0960832959408</v>
       </c>
       <c r="D5" s="0">
-        <v>38.715725510520052</v>
+        <v>61.178240472986317</v>
       </c>
       <c r="E5" s="0">
-        <v>807.98222286997316</v>
+        <v>2730.0735462480307</v>
       </c>
       <c r="F5" s="0">
-        <v>962.70054827869387</v>
+        <v>2887.0903496366582</v>
       </c>
       <c r="G5" s="0">
-        <v>55.239985856723351</v>
+        <v>86.681786134574494</v>
       </c>
       <c r="H5" s="0">
-        <v>2172.1779459504569</v>
+        <v>3627.5804278527908</v>
       </c>
       <c r="I5" s="0">
-        <v>2420.372808376278</v>
+        <v>4065.5352057273089</v>
       </c>
       <c r="J5" s="0">
-        <v>108.72547567954138</v>
+        <v>222.03678333904588</v>
       </c>
     </row>
     <row r="6">
@@ -4067,31 +4067,31 @@
         <v>14</v>
       </c>
       <c r="B6" s="0">
-        <v>269.34303527494967</v>
+        <v>2252.8712878915194</v>
       </c>
       <c r="C6" s="0">
-        <v>306.31720245729542</v>
+        <v>2411.7609731940242</v>
       </c>
       <c r="D6" s="0">
-        <v>19.419067795341284</v>
+        <v>33.45138829112021</v>
       </c>
       <c r="E6" s="0">
-        <v>378.16540804060241</v>
+        <v>2614.0187044560766</v>
       </c>
       <c r="F6" s="0">
-        <v>465.32987052827292</v>
+        <v>2654.3616609730111</v>
       </c>
       <c r="G6" s="0">
-        <v>46.89036688850242</v>
+        <v>20.39334262383484</v>
       </c>
       <c r="H6" s="0">
-        <v>897.13919378046012</v>
+        <v>3382.0224903575972</v>
       </c>
       <c r="I6" s="0">
-        <v>1037.6823641546775</v>
+        <v>3467.6218287294291</v>
       </c>
       <c r="J6" s="0">
-        <v>126.96901246723006</v>
+        <v>38.987581501568123</v>
       </c>
     </row>
     <row r="7">
@@ -4202,7 +4202,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" customWidth="true"/>
+    <col min="1" max="1" width="5.1796875" customWidth="true"/>
     <col min="2" max="2" width="11.453125" customWidth="true"/>
     <col min="3" max="3" width="11.453125" customWidth="true"/>
     <col min="4" max="4" width="11.453125" customWidth="true"/>
@@ -4215,34 +4215,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4315,31 +4315,31 @@
         <v>12</v>
       </c>
       <c r="B4" s="0">
-        <v>7435.8061996168944</v>
+        <v>2357.3904886238997</v>
       </c>
       <c r="C4" s="0">
-        <v>8335.8316869054452</v>
+        <v>3583.7817831804514</v>
       </c>
       <c r="D4" s="0">
-        <v>468.38932012810699</v>
+        <v>2034.5283412957911</v>
       </c>
       <c r="E4" s="0">
-        <v>14204.876453084842</v>
+        <v>10665.137602121264</v>
       </c>
       <c r="F4" s="0">
-        <v>15198.674341368691</v>
+        <v>12966.734483082571</v>
       </c>
       <c r="G4" s="0">
-        <v>623.64112948320417</v>
+        <v>1027.6836203678363</v>
       </c>
       <c r="H4" s="0">
-        <v>30855.908546578765</v>
+        <v>23981.737064487577</v>
       </c>
       <c r="I4" s="0">
-        <v>32809.951389571346</v>
+        <v>27587.503646069275</v>
       </c>
       <c r="J4" s="0">
-        <v>968.86931067033606</v>
+        <v>1529.7363455171701</v>
       </c>
     </row>
     <row r="5">
@@ -4347,31 +4347,31 @@
         <v>13</v>
       </c>
       <c r="B5" s="0">
-        <v>1086.4053261075246</v>
+        <v>2322.4073766324291</v>
       </c>
       <c r="C5" s="0">
-        <v>2524.9440858909065</v>
+        <v>7463.8135425631908</v>
       </c>
       <c r="D5" s="0">
-        <v>902.10289796561938</v>
+        <v>1552.7471560348743</v>
       </c>
       <c r="E5" s="0">
-        <v>11037.625274687631</v>
+        <v>8164.2588306473926</v>
       </c>
       <c r="F5" s="0">
-        <v>11893.311552016628</v>
+        <v>11956.633352106928</v>
       </c>
       <c r="G5" s="0">
-        <v>358.10487232830633</v>
+        <v>2251.4004929219636</v>
       </c>
       <c r="H5" s="0">
-        <v>26525.466895408361</v>
+        <v>17990.504482384931</v>
       </c>
       <c r="I5" s="0">
-        <v>28284.481810683385</v>
+        <v>22035.452253137828</v>
       </c>
       <c r="J5" s="0">
-        <v>722.38929896907916</v>
+        <v>1491.8245781420096</v>
       </c>
     </row>
     <row r="6">
@@ -4379,31 +4379,31 @@
         <v>14</v>
       </c>
       <c r="B6" s="0">
-        <v>282.90217092841112</v>
+        <v>2488.2714367023536</v>
       </c>
       <c r="C6" s="0">
-        <v>3581.2280983345427</v>
+        <v>2738.7379464032224</v>
       </c>
       <c r="D6" s="0">
-        <v>1734.8872221501726</v>
+        <v>744.66955708679416</v>
       </c>
       <c r="E6" s="0">
-        <v>5439.1303997316118</v>
+        <v>3830.9201205512209</v>
       </c>
       <c r="F6" s="0">
-        <v>7940.322695451855</v>
+        <v>11755.299520811765</v>
       </c>
       <c r="G6" s="0">
-        <v>1931.1562215359133</v>
+        <v>1547.5390237121062</v>
       </c>
       <c r="H6" s="0">
-        <v>14438.378777615522</v>
+        <v>25767.791165731713</v>
       </c>
       <c r="I6" s="0">
-        <v>20663.912744362162</v>
+        <v>28599.531209769171</v>
       </c>
       <c r="J6" s="0">
-        <v>5157.9523205678061</v>
+        <v>867.40498937912889</v>
       </c>
     </row>
     <row r="7">
@@ -4514,7 +4514,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" customWidth="true"/>
+    <col min="1" max="1" width="5.1796875" customWidth="true"/>
     <col min="2" max="2" width="11.453125" customWidth="true"/>
     <col min="3" max="3" width="11.453125" customWidth="true"/>
     <col min="4" max="4" width="11.453125" customWidth="true"/>
@@ -4527,34 +4527,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4627,31 +4627,31 @@
         <v>12</v>
       </c>
       <c r="B4" s="0">
-        <v>976.95923711085834</v>
+        <v>2833.5619071113347</v>
       </c>
       <c r="C4" s="0">
-        <v>1270.895900416396</v>
+        <v>3020.1204457907447</v>
       </c>
       <c r="D4" s="0">
-        <v>185.09209553887325</v>
+        <v>98.614861654959327</v>
       </c>
       <c r="E4" s="0">
-        <v>1524.3645905036637</v>
+        <v>3292.119610316021</v>
       </c>
       <c r="F4" s="0">
-        <v>2098.8538367004967</v>
+        <v>3572.9778224526663</v>
       </c>
       <c r="G4" s="0">
-        <v>218.85661605002642</v>
+        <v>111.17160560766557</v>
       </c>
       <c r="H4" s="0">
-        <v>4004.4720656816826</v>
+        <v>4369.9619157015713</v>
       </c>
       <c r="I4" s="0">
-        <v>4779.5058456859488</v>
+        <v>4901.9126077191413</v>
       </c>
       <c r="J4" s="0">
-        <v>352.77468322036191</v>
+        <v>264.01681723250226</v>
       </c>
     </row>
     <row r="5">
@@ -4659,31 +4659,31 @@
         <v>13</v>
       </c>
       <c r="B5" s="0">
-        <v>543.44526815445215</v>
+        <v>3066.8364490495392</v>
       </c>
       <c r="C5" s="0">
-        <v>780.55231386294543</v>
+        <v>3315.7723206398032</v>
       </c>
       <c r="D5" s="0">
-        <v>72.046685435843258</v>
+        <v>160.76490587475172</v>
       </c>
       <c r="E5" s="0">
-        <v>1331.3288109366508</v>
+        <v>3580.2804634749759</v>
       </c>
       <c r="F5" s="0">
-        <v>1544.7542425143113</v>
+        <v>4094.3153640065257</v>
       </c>
       <c r="G5" s="0">
-        <v>96.536471986425127</v>
+        <v>284.22965966560446</v>
       </c>
       <c r="H5" s="0">
-        <v>2617.9342995973884</v>
+        <v>4875.479953278922</v>
       </c>
       <c r="I5" s="0">
-        <v>2941.6944753204125</v>
+        <v>5756.0237166840534</v>
       </c>
       <c r="J5" s="0">
-        <v>204.24553997880952</v>
+        <v>541.27964550200159</v>
       </c>
     </row>
     <row r="6">
@@ -4691,31 +4691,31 @@
         <v>14</v>
       </c>
       <c r="B6" s="0">
-        <v>416.11607146819551</v>
+        <v>2725.5088985439911</v>
       </c>
       <c r="C6" s="0">
-        <v>491.61506398667541</v>
+        <v>2762.2639426837209</v>
       </c>
       <c r="D6" s="0">
-        <v>58.565704753273224</v>
+        <v>12.211714744614335</v>
       </c>
       <c r="E6" s="0">
-        <v>676.67654255206162</v>
+        <v>2992.9776196780913</v>
       </c>
       <c r="F6" s="0">
-        <v>757.4975661089087</v>
+        <v>3072.2373794044252</v>
       </c>
       <c r="G6" s="0">
-        <v>75.977078808531104</v>
+        <v>32.396992619265113</v>
       </c>
       <c r="H6" s="0">
-        <v>1284.6176343363059</v>
+        <v>3741.1041453840949</v>
       </c>
       <c r="I6" s="0">
-        <v>1491.0329457492048</v>
+        <v>3823.3419856107043</v>
       </c>
       <c r="J6" s="0">
-        <v>131.61120405194794</v>
+        <v>46.581769691270956</v>
       </c>
     </row>
     <row r="7">
@@ -4826,7 +4826,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" customWidth="true"/>
+    <col min="1" max="1" width="5.1796875" customWidth="true"/>
     <col min="2" max="2" width="11.453125" customWidth="true"/>
     <col min="3" max="3" width="11.453125" customWidth="true"/>
     <col min="4" max="4" width="11.453125" customWidth="true"/>
@@ -4839,34 +4839,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4939,31 +4939,31 @@
         <v>12</v>
       </c>
       <c r="B4" s="0">
-        <v>1077.7125672722327</v>
+        <v>2975.5820128478481</v>
       </c>
       <c r="C4" s="0">
-        <v>1413.6162818060186</v>
+        <v>3123.3818282680945</v>
       </c>
       <c r="D4" s="0">
-        <v>162.11877041343828</v>
+        <v>70.533980938635253</v>
       </c>
       <c r="E4" s="0">
-        <v>2166.3271718001834</v>
+        <v>3414.6779881529778</v>
       </c>
       <c r="F4" s="0">
-        <v>2659.9085893206266</v>
+        <v>3705.5682227859334</v>
       </c>
       <c r="G4" s="0">
-        <v>240.9683360165867</v>
+        <v>148.75645922185271</v>
       </c>
       <c r="H4" s="0">
-        <v>6873.6695699339689</v>
+        <v>5657.0199153073499</v>
       </c>
       <c r="I4" s="0">
-        <v>8610.2397765359292</v>
+        <v>6296.3466386779783</v>
       </c>
       <c r="J4" s="0">
-        <v>573.8129395298555</v>
+        <v>366.5393764724044</v>
       </c>
     </row>
     <row r="5">
@@ -4971,31 +4971,31 @@
         <v>13</v>
       </c>
       <c r="B5" s="0">
-        <v>751.49856602578802</v>
+        <v>3109.4624921109962</v>
       </c>
       <c r="C5" s="0">
-        <v>891.11414822225265</v>
+        <v>3573.969834732025</v>
       </c>
       <c r="D5" s="0">
-        <v>48.249246168476624</v>
+        <v>198.50016863473883</v>
       </c>
       <c r="E5" s="0">
-        <v>1518.9842505275064</v>
+        <v>3892.5298813401901</v>
       </c>
       <c r="F5" s="0">
-        <v>1674.0598028312904</v>
+        <v>4334.4272224062361</v>
       </c>
       <c r="G5" s="0">
-        <v>69.723691157576198</v>
+        <v>316.19779200971999</v>
       </c>
       <c r="H5" s="0">
-        <v>3463.2614665794554</v>
+        <v>6869.1641447475376</v>
       </c>
       <c r="I5" s="0">
-        <v>4213.2418123269781</v>
+        <v>9143.5552411667122</v>
       </c>
       <c r="J5" s="0">
-        <v>436.06681081533065</v>
+        <v>1055.0419354412875</v>
       </c>
     </row>
     <row r="6">
@@ -5003,31 +5003,31 @@
         <v>14</v>
       </c>
       <c r="B6" s="0">
-        <v>477.24750013840503</v>
+        <v>2890.5898577145094</v>
       </c>
       <c r="C6" s="0">
-        <v>579.5935536449698</v>
+        <v>2923.6248188911181</v>
       </c>
       <c r="D6" s="0">
-        <v>74.468188186160219</v>
+        <v>12.533959381633323</v>
       </c>
       <c r="E6" s="0">
-        <v>706.80585328043935</v>
+        <v>3163.3882375835665</v>
       </c>
       <c r="F6" s="0">
-        <v>815.33570356806558</v>
+        <v>3218.0114676059552</v>
       </c>
       <c r="G6" s="0">
-        <v>99.302372429172735</v>
+        <v>18.176529042299741</v>
       </c>
       <c r="H6" s="0">
-        <v>1805.1145432821977</v>
+        <v>4201.5292335899503</v>
       </c>
       <c r="I6" s="0">
-        <v>2095.7985095436425</v>
+        <v>4414.7424275281383</v>
       </c>
       <c r="J6" s="0">
-        <v>170.91728498103109</v>
+        <v>63.478627919031801</v>
       </c>
     </row>
     <row r="7">
@@ -5138,7 +5138,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" customWidth="true"/>
+    <col min="1" max="1" width="5.1796875" customWidth="true"/>
     <col min="2" max="2" width="11.453125" customWidth="true"/>
     <col min="3" max="3" width="11.453125" customWidth="true"/>
     <col min="4" max="4" width="11.453125" customWidth="true"/>
@@ -5151,34 +5151,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5251,31 +5251,31 @@
         <v>12</v>
       </c>
       <c r="B4" s="0">
-        <v>5686.3968521293755</v>
+        <v>2945.0384394844859</v>
       </c>
       <c r="C4" s="0">
-        <v>14745.319133955334</v>
+        <v>3014.3748614225387</v>
       </c>
       <c r="D4" s="0">
-        <v>5402.6522389617967</v>
+        <v>32.894282641532399</v>
       </c>
       <c r="E4" s="0">
-        <v>27844.357043529493</v>
+        <v>3207.5658081797615</v>
       </c>
       <c r="F4" s="0">
-        <v>53258.138752586201</v>
+        <v>3617.152496545365</v>
       </c>
       <c r="G4" s="0">
-        <v>10671.973047216929</v>
+        <v>192.22704172713151</v>
       </c>
       <c r="H4" s="0">
-        <v>87431.130614159032</v>
+        <v>5133.1547206089435</v>
       </c>
       <c r="I4" s="0">
-        <v>125574.36302915754</v>
+        <v>5948.2286650646265</v>
       </c>
       <c r="J4" s="0">
-        <v>14018.442445567749</v>
+        <v>603.51010918337897</v>
       </c>
     </row>
     <row r="5">
@@ -5283,31 +5283,31 @@
         <v>13</v>
       </c>
       <c r="B5" s="0">
-        <v>625.2190829203696</v>
+        <v>2896.7729533423726</v>
       </c>
       <c r="C5" s="0">
-        <v>924.10344989790804</v>
+        <v>2936.9769420654161</v>
       </c>
       <c r="D5" s="0">
-        <v>171.65692899306603</v>
+        <v>19.779612645172545</v>
       </c>
       <c r="E5" s="0">
-        <v>2907.8123032043841</v>
+        <v>3130.0289120459856</v>
       </c>
       <c r="F5" s="0">
-        <v>5921.5966391972179</v>
+        <v>3175.5081411685001</v>
       </c>
       <c r="G5" s="0">
-        <v>1566.8272665062261</v>
+        <v>28.257301390509713</v>
       </c>
       <c r="H5" s="0">
-        <v>11956.647364463866</v>
+        <v>3787.5025837656481</v>
       </c>
       <c r="I5" s="0">
-        <v>28925.986903973509</v>
+        <v>3973.031370928672</v>
       </c>
       <c r="J5" s="0">
-        <v>6375.3869198428729</v>
+        <v>122.54562686950207</v>
       </c>
     </row>
     <row r="6">
@@ -5315,31 +5315,31 @@
         <v>14</v>
       </c>
       <c r="B6" s="0">
-        <v>475.30214813538714</v>
+        <v>2906.2062795433731</v>
       </c>
       <c r="C6" s="0">
-        <v>562.49219009216426</v>
+        <v>2932.904600352867</v>
       </c>
       <c r="D6" s="0">
-        <v>91.64578563966711</v>
+        <v>13.169176291336976</v>
       </c>
       <c r="E6" s="0">
-        <v>963.56205696253801</v>
+        <v>3268.7656125087601</v>
       </c>
       <c r="F6" s="0">
-        <v>1730.3753704450471</v>
+        <v>3428.1347651342703</v>
       </c>
       <c r="G6" s="0">
-        <v>471.94929313489041</v>
+        <v>78.81729722776339</v>
       </c>
       <c r="H6" s="0">
-        <v>2899.0974279429665</v>
+        <v>8388.1316943599977</v>
       </c>
       <c r="I6" s="0">
-        <v>5159.0630607835483</v>
+        <v>10275.917170503353</v>
       </c>
       <c r="J6" s="0">
-        <v>1222.8919768035018</v>
+        <v>955.77033335306521</v>
       </c>
     </row>
     <row r="7">
@@ -5450,7 +5450,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" customWidth="true"/>
+    <col min="1" max="1" width="5.1796875" customWidth="true"/>
     <col min="2" max="2" width="11.453125" customWidth="true"/>
     <col min="3" max="3" width="11.453125" customWidth="true"/>
     <col min="4" max="4" width="11.453125" customWidth="true"/>
@@ -5463,34 +5463,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5563,31 +5563,31 @@
         <v>12</v>
       </c>
       <c r="B4" s="0">
-        <v>6687.7123219987407</v>
+        <v>3441.3914304237051</v>
       </c>
       <c r="C4" s="0">
-        <v>9522.5044220185173</v>
+        <v>6521.4844829512767</v>
       </c>
       <c r="D4" s="0">
-        <v>1634.5993105382811</v>
+        <v>1570.5099658065396</v>
       </c>
       <c r="E4" s="0">
-        <v>15752.26771226952</v>
+        <v>4937.0870414565161</v>
       </c>
       <c r="F4" s="0">
-        <v>21503.175910002588</v>
+        <v>10482.639867005335</v>
       </c>
       <c r="G4" s="0">
-        <v>3439.3429884656935</v>
+        <v>2799.7347086589989</v>
       </c>
       <c r="H4" s="0">
-        <v>47486.530142300981</v>
+        <v>19228.021304771682</v>
       </c>
       <c r="I4" s="0">
-        <v>59774.930569238066</v>
+        <v>31254.59328027019</v>
       </c>
       <c r="J4" s="0">
-        <v>5692.5068525676461</v>
+        <v>4299.7483200946708</v>
       </c>
     </row>
     <row r="5">
@@ -5595,31 +5595,31 @@
         <v>13</v>
       </c>
       <c r="B5" s="0">
-        <v>1796.4363393040148</v>
+        <v>2833.5771084480102</v>
       </c>
       <c r="C5" s="0">
-        <v>4410.6765572526929</v>
+        <v>7796.7311666054984</v>
       </c>
       <c r="D5" s="0">
-        <v>1070.5462136588196</v>
+        <v>1987.9391337785287</v>
       </c>
       <c r="E5" s="0">
-        <v>8695.2704681131072</v>
+        <v>3992.6149096947365</v>
       </c>
       <c r="F5" s="0">
-        <v>11167.542152421536</v>
+        <v>9721.2905624127325</v>
       </c>
       <c r="G5" s="0">
-        <v>1086.403145179655</v>
+        <v>2752.718625536349</v>
       </c>
       <c r="H5" s="0">
-        <v>30056.384749316559</v>
+        <v>7144.958918959348</v>
       </c>
       <c r="I5" s="0">
-        <v>35861.478921694688</v>
+        <v>23490.965502815245</v>
       </c>
       <c r="J5" s="0">
-        <v>3219.3184147986522</v>
+        <v>5355.7312542483733</v>
       </c>
     </row>
     <row r="6">
@@ -5627,31 +5627,31 @@
         <v>14</v>
       </c>
       <c r="B6" s="0">
-        <v>1528.5833890233826</v>
+        <v>3709.8973546528041</v>
       </c>
       <c r="C6" s="0">
-        <v>2427.0981897660949</v>
+        <v>4606.4927308572205</v>
       </c>
       <c r="D6" s="0">
-        <v>507.72469659687584</v>
+        <v>416.97560640264163</v>
       </c>
       <c r="E6" s="0">
-        <v>3422.4592951827672</v>
+        <v>7053.8347933563655</v>
       </c>
       <c r="F6" s="0">
-        <v>4607.0801125668468</v>
+        <v>7463.8373393444726</v>
       </c>
       <c r="G6" s="0">
-        <v>709.4244540502043</v>
+        <v>204.96141179924581</v>
       </c>
       <c r="H6" s="0">
-        <v>12477.202779958956</v>
+        <v>16970.141388255302</v>
       </c>
       <c r="I6" s="0">
-        <v>15428.844733554939</v>
+        <v>17899.59098438951</v>
       </c>
       <c r="J6" s="0">
-        <v>1662.1439895952851</v>
+        <v>465.01907553761907</v>
       </c>
     </row>
     <row r="7">
@@ -5762,7 +5762,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" customWidth="true"/>
+    <col min="1" max="1" width="5.1796875" customWidth="true"/>
     <col min="2" max="2" width="11.453125" customWidth="true"/>
     <col min="3" max="3" width="11.453125" customWidth="true"/>
     <col min="4" max="4" width="11.453125" customWidth="true"/>
@@ -5775,34 +5775,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5875,31 +5875,31 @@
         <v>12</v>
       </c>
       <c r="B4" s="0">
-        <v>1362.6283583794921</v>
+        <v>3234.2631000682791</v>
       </c>
       <c r="C4" s="0">
-        <v>2284.4219243600542</v>
+        <v>3382.3799408893769</v>
       </c>
       <c r="D4" s="0">
-        <v>525.34713478286824</v>
+        <v>90.761301178925365</v>
       </c>
       <c r="E4" s="0">
-        <v>3559.468983821359</v>
+        <v>3548.379257934309</v>
       </c>
       <c r="F4" s="0">
-        <v>5324.3524805811967</v>
+        <v>4051.3625692563701</v>
       </c>
       <c r="G4" s="0">
-        <v>1118.8502157033904</v>
+        <v>336.65422967981465</v>
       </c>
       <c r="H4" s="0">
-        <v>8682.4341046793852</v>
+        <v>4078.5168379917036</v>
       </c>
       <c r="I4" s="0">
-        <v>11898.641907365343</v>
+        <v>4902.230540758379</v>
       </c>
       <c r="J4" s="0">
-        <v>1457.5336272988116</v>
+        <v>537.05993530547175</v>
       </c>
     </row>
     <row r="5">
@@ -5907,31 +5907,31 @@
         <v>13</v>
       </c>
       <c r="B5" s="0">
-        <v>575.99000556162946</v>
+        <v>3332.299291129691</v>
       </c>
       <c r="C5" s="0">
-        <v>661.29536568918297</v>
+        <v>3642.6048306955099</v>
       </c>
       <c r="D5" s="0">
-        <v>39.469694794909394</v>
+        <v>347.68264757303979</v>
       </c>
       <c r="E5" s="0">
-        <v>1266.6474483630332</v>
+        <v>4185.2281818347192</v>
       </c>
       <c r="F5" s="0">
-        <v>1694.3187069323933</v>
+        <v>4899.7991841932089</v>
       </c>
       <c r="G5" s="0">
-        <v>216.34423812039137</v>
+        <v>618.50599536801803</v>
       </c>
       <c r="H5" s="0">
-        <v>2486.0699714379516</v>
+        <v>4271.9200369448454</v>
       </c>
       <c r="I5" s="0">
-        <v>4198.2926138016956</v>
+        <v>6283.5468775151703</v>
       </c>
       <c r="J5" s="0">
-        <v>771.60159951432138</v>
+        <v>2533.5000835131214</v>
       </c>
     </row>
     <row r="6">
@@ -5939,31 +5939,31 @@
         <v>14</v>
       </c>
       <c r="B6" s="0">
-        <v>523.17666860231111</v>
+        <v>3217.6554111046862</v>
       </c>
       <c r="C6" s="0">
-        <v>577.56470667412509</v>
+        <v>3224.5069086841604</v>
       </c>
       <c r="D6" s="0">
-        <v>35.992607336477342</v>
+        <v>4.6458860208540624</v>
       </c>
       <c r="E6" s="0">
-        <v>899.60521771274762</v>
+        <v>3364.3947667532389</v>
       </c>
       <c r="F6" s="0">
-        <v>1051.7826653653101</v>
+        <v>3488.3777640201829</v>
       </c>
       <c r="G6" s="0">
-        <v>92.026273797723462</v>
+        <v>42.292728846879449</v>
       </c>
       <c r="H6" s="0">
-        <v>1234.7100443034519</v>
+        <v>3774.9594975238197</v>
       </c>
       <c r="I6" s="0">
-        <v>1679.3203840880351</v>
+        <v>3896.4753862959915</v>
       </c>
       <c r="J6" s="0">
-        <v>250.58503746299539</v>
+        <v>67.51737978476487</v>
       </c>
     </row>
     <row r="7">
@@ -6074,7 +6074,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" customWidth="true"/>
+    <col min="1" max="1" width="5.1796875" customWidth="true"/>
     <col min="2" max="2" width="11.453125" customWidth="true"/>
     <col min="3" max="3" width="11.453125" customWidth="true"/>
     <col min="4" max="4" width="11.453125" customWidth="true"/>
@@ -6087,34 +6087,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6187,31 +6187,31 @@
         <v>12</v>
       </c>
       <c r="B4" s="0">
-        <v>4861.3621809108436</v>
+        <v>3316.2051233558186</v>
       </c>
       <c r="C4" s="0">
-        <v>10125.859364328277</v>
+        <v>3413.3951309708823</v>
       </c>
       <c r="D4" s="0">
-        <v>2508.3824186828328</v>
+        <v>51.087824998942445</v>
       </c>
       <c r="E4" s="0">
-        <v>12833.665393096686</v>
+        <v>3966.3337845355773</v>
       </c>
       <c r="F4" s="0">
-        <v>18741.101859098762</v>
+        <v>4388.7995333664612</v>
       </c>
       <c r="G4" s="0">
-        <v>3286.041522496595</v>
+        <v>280.58923199925397</v>
       </c>
       <c r="H4" s="0">
-        <v>46710.909687146406</v>
+        <v>6334.9553727752027</v>
       </c>
       <c r="I4" s="0">
-        <v>65561.179143455127</v>
+        <v>7691.6555593852054</v>
       </c>
       <c r="J4" s="0">
-        <v>9317.6262605579559</v>
+        <v>822.76362760176232</v>
       </c>
     </row>
     <row r="5">
@@ -6219,31 +6219,31 @@
         <v>13</v>
       </c>
       <c r="B5" s="0">
-        <v>858.66892102051861</v>
+        <v>3218.8178370048377</v>
       </c>
       <c r="C5" s="0">
-        <v>1612.7521143455808</v>
+        <v>3285.4737753194518</v>
       </c>
       <c r="D5" s="0">
-        <v>429.58717816238311</v>
+        <v>25.475325067645713</v>
       </c>
       <c r="E5" s="0">
-        <v>2906.3924616338945</v>
+        <v>3425.6615043104202</v>
       </c>
       <c r="F5" s="0">
-        <v>5553.9934593073085</v>
+        <v>3595.0397515821892</v>
       </c>
       <c r="G5" s="0">
-        <v>912.6921051163298</v>
+        <v>109.06760465052747</v>
       </c>
       <c r="H5" s="0">
-        <v>18476.840007798874</v>
+        <v>4076.5653491209951</v>
       </c>
       <c r="I5" s="0">
-        <v>25749.599721688366</v>
+        <v>4802.44724573845</v>
       </c>
       <c r="J5" s="0">
-        <v>3072.6003621935452</v>
+        <v>352.65922230459631</v>
       </c>
     </row>
     <row r="6">
@@ -6251,31 +6251,31 @@
         <v>14</v>
       </c>
       <c r="B6" s="0">
-        <v>522.4819859846084</v>
+        <v>3291.9137838240504</v>
       </c>
       <c r="C6" s="0">
-        <v>733.05498677363141</v>
+        <v>3311.7567293299348</v>
       </c>
       <c r="D6" s="0">
-        <v>147.18950520971069</v>
+        <v>12.654524025288561</v>
       </c>
       <c r="E6" s="0">
-        <v>1223.6092074322655</v>
+        <v>3636.4922010408859</v>
       </c>
       <c r="F6" s="0">
-        <v>2134.0382375152913</v>
+        <v>3910.9844943599633</v>
       </c>
       <c r="G6" s="0">
-        <v>487.44719979481408</v>
+        <v>147.60072806867996</v>
       </c>
       <c r="H6" s="0">
-        <v>4498.2334688087312</v>
+        <v>11412.403416276142</v>
       </c>
       <c r="I6" s="0">
-        <v>7354.8551392293557</v>
+        <v>12649.674472059311</v>
       </c>
       <c r="J6" s="0">
-        <v>1492.3996947346898</v>
+        <v>756.39922282771897</v>
       </c>
     </row>
     <row r="7">
@@ -6386,7 +6386,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" customWidth="true"/>
+    <col min="1" max="1" width="5.1796875" customWidth="true"/>
     <col min="2" max="2" width="11.453125" customWidth="true"/>
     <col min="3" max="3" width="11.453125" customWidth="true"/>
     <col min="4" max="4" width="11.453125" customWidth="true"/>
@@ -6399,34 +6399,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6499,31 +6499,31 @@
         <v>12</v>
       </c>
       <c r="B4" s="0">
-        <v>1684.558076657846</v>
+        <v>4381.7367057311894</v>
       </c>
       <c r="C4" s="0">
-        <v>8218.5663719320364</v>
+        <v>4790.6389522968693</v>
       </c>
       <c r="D4" s="0">
-        <v>8294.4478493456863</v>
+        <v>332.53566097890638</v>
       </c>
       <c r="E4" s="0">
-        <v>62403.535638345209</v>
+        <v>5944.5791948801125</v>
       </c>
       <c r="F4" s="0">
-        <v>1510934.469775375</v>
+        <v>7503.3272707329443</v>
       </c>
       <c r="G4" s="0">
-        <v>1677663.8492079463</v>
+        <v>954.76615023671445</v>
       </c>
       <c r="H4" s="0">
-        <v>615661.41397577408</v>
+        <v>11815.601524402871</v>
       </c>
       <c r="I4" s="0">
-        <v>10889502.666216679</v>
+        <v>14571.191869116321</v>
       </c>
       <c r="J4" s="0">
-        <v>12020555.186672213</v>
+        <v>1800.6314179616247</v>
       </c>
     </row>
     <row r="5">
@@ -6531,31 +6531,31 @@
         <v>13</v>
       </c>
       <c r="B5" s="0">
-        <v>1244.8713701534962</v>
+        <v>4274.0034563588606</v>
       </c>
       <c r="C5" s="0">
-        <v>1796.4574020539876</v>
+        <v>4981.717500493246</v>
       </c>
       <c r="D5" s="0">
-        <v>239.04643373103326</v>
+        <v>617.66486847792032</v>
       </c>
       <c r="E5" s="0">
-        <v>3226.4097421906108</v>
+        <v>4508.7721474291247</v>
       </c>
       <c r="F5" s="0">
-        <v>4518.6167671750827</v>
+        <v>6279.2780658660377</v>
       </c>
       <c r="G5" s="0">
-        <v>852.58538533737067</v>
+        <v>720.17569553686508</v>
       </c>
       <c r="H5" s="0">
-        <v>18892.229833384092</v>
+        <v>8486.2822880880776</v>
       </c>
       <c r="I5" s="0">
-        <v>65281.669811903877</v>
+        <v>9751.6208949969605</v>
       </c>
       <c r="J5" s="0">
-        <v>38524.17611338522</v>
+        <v>803.87862568911703</v>
       </c>
     </row>
     <row r="6">
@@ -6563,31 +6563,31 @@
         <v>14</v>
       </c>
       <c r="B6" s="0">
-        <v>586.5913560724839</v>
+        <v>3435.4765296142905</v>
       </c>
       <c r="C6" s="0">
-        <v>1112.3418259910998</v>
+        <v>3714.665956457995</v>
       </c>
       <c r="D6" s="0">
-        <v>264.57823081630357</v>
+        <v>98.746991681430103</v>
       </c>
       <c r="E6" s="0">
-        <v>1208.953065694318</v>
+        <v>4003.1858844340459</v>
       </c>
       <c r="F6" s="0">
-        <v>1993.8284448974932</v>
+        <v>4484.0017207802903</v>
       </c>
       <c r="G6" s="0">
-        <v>443.52795392683691</v>
+        <v>222.92316192594126</v>
       </c>
       <c r="H6" s="0">
-        <v>5202.7721518466569</v>
+        <v>8677.8382813248318</v>
       </c>
       <c r="I6" s="0">
-        <v>7213.2824622667722</v>
+        <v>9334.7639329180729</v>
       </c>
       <c r="J6" s="0">
-        <v>1506.1825564506951</v>
+        <v>339.26223892336674</v>
       </c>
     </row>
     <row r="7">
@@ -6698,12 +6698,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" customWidth="true"/>
+    <col min="1" max="1" width="5.1796875" customWidth="true"/>
     <col min="2" max="2" width="11.453125" customWidth="true"/>
     <col min="3" max="3" width="11.453125" customWidth="true"/>
     <col min="4" max="4" width="11.453125" customWidth="true"/>
     <col min="5" max="5" width="11.453125" customWidth="true"/>
-    <col min="6" max="6" width="14.453125" customWidth="true"/>
+    <col min="6" max="6" width="11.453125" customWidth="true"/>
     <col min="7" max="7" width="11.453125" customWidth="true"/>
     <col min="8" max="8" width="15.453125" customWidth="true"/>
     <col min="9" max="9" width="15.453125" customWidth="true"/>
@@ -6711,34 +6711,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6811,31 +6811,31 @@
         <v>12</v>
       </c>
       <c r="B4" s="0">
-        <v>480454544.24710619</v>
+        <v>6353494.0742145106</v>
       </c>
       <c r="C4" s="0">
-        <v>4343733900.7395</v>
+        <v>37223797.807016037</v>
       </c>
       <c r="D4" s="0">
-        <v>2642028697.1136746</v>
+        <v>25551873.650830969</v>
       </c>
       <c r="E4" s="0">
-        <v>4511027725.7511196</v>
+        <v>96733382.978811502</v>
       </c>
       <c r="F4" s="0">
-        <v>15658661696.599325</v>
+        <v>234532300.10281861</v>
       </c>
       <c r="G4" s="0">
-        <v>6808342930.3273535</v>
+        <v>82884733.965494305</v>
       </c>
       <c r="H4" s="0">
-        <v>54999058093.23362</v>
+        <v>230143186.19838864</v>
       </c>
       <c r="I4" s="0">
-        <v>81647980084.776947</v>
+        <v>923920494.94170809</v>
       </c>
       <c r="J4" s="0">
-        <v>13988225765.437653</v>
+        <v>418535294.83562315</v>
       </c>
     </row>
     <row r="5">
@@ -6843,31 +6843,31 @@
         <v>13</v>
       </c>
       <c r="B5" s="0">
-        <v>15029781.822283812</v>
+        <v>419135.09715545014</v>
       </c>
       <c r="C5" s="0">
-        <v>45520591.68656569</v>
+        <v>4564959.1107365321</v>
       </c>
       <c r="D5" s="0">
-        <v>22974310.022088129</v>
+        <v>3231980.5229541655</v>
       </c>
       <c r="E5" s="0">
-        <v>187125792.79045069</v>
+        <v>28096701.134945206</v>
       </c>
       <c r="F5" s="0">
-        <v>928237015.79729509</v>
+        <v>57388982.686014883</v>
       </c>
       <c r="G5" s="0">
-        <v>601533804.61109114</v>
+        <v>19917351.018108319</v>
       </c>
       <c r="H5" s="0">
-        <v>5097426238.9165936</v>
+        <v>24620042.484504409</v>
       </c>
       <c r="I5" s="0">
-        <v>18385511180.092285</v>
+        <v>77219684.465755418</v>
       </c>
       <c r="J5" s="0">
-        <v>5672340790.9004221</v>
+        <v>30638633.307489723</v>
       </c>
     </row>
     <row r="6">
@@ -6875,31 +6875,31 @@
         <v>14</v>
       </c>
       <c r="B6" s="0">
-        <v>234854.9479311007</v>
+        <v>31448.338842484103</v>
       </c>
       <c r="C6" s="0">
-        <v>9276407.7991343513</v>
+        <v>155369.79596516857</v>
       </c>
       <c r="D6" s="0">
-        <v>8494633.0225501992</v>
+        <v>64694.976952505771</v>
       </c>
       <c r="E6" s="0">
-        <v>74426223.640947193</v>
+        <v>7474982.1687578447</v>
       </c>
       <c r="F6" s="0">
-        <v>149208073.00517502</v>
+        <v>12191580.818199273</v>
       </c>
       <c r="G6" s="0">
-        <v>41909084.597748049</v>
+        <v>2398892.6387307378</v>
       </c>
       <c r="H6" s="0">
-        <v>185520171.39496005</v>
+        <v>43670601.29297176</v>
       </c>
       <c r="I6" s="0">
-        <v>2222905008.2655292</v>
+        <v>76450511.507054135</v>
       </c>
       <c r="J6" s="0">
-        <v>1743131265.259865</v>
+        <v>21135957.067663819</v>
       </c>
     </row>
     <row r="7">
@@ -7010,7 +7010,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" customWidth="true"/>
+    <col min="1" max="1" width="5.1796875" customWidth="true"/>
     <col min="2" max="2" width="11.453125" customWidth="true"/>
     <col min="3" max="3" width="11.453125" customWidth="true"/>
     <col min="4" max="4" width="11.453125" customWidth="true"/>
@@ -7023,34 +7023,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7123,31 +7123,31 @@
         <v>12</v>
       </c>
       <c r="B4" s="0">
-        <v>21442.20484793666</v>
+        <v>490.5402339248119</v>
       </c>
       <c r="C4" s="0">
-        <v>48778.091767114951</v>
+        <v>620.64446336615276</v>
       </c>
       <c r="D4" s="0">
-        <v>13682.26524574327</v>
+        <v>58.264717683963802</v>
       </c>
       <c r="E4" s="0">
-        <v>69400.84279065665</v>
+        <v>835.79544494132972</v>
       </c>
       <c r="F4" s="0">
-        <v>98897.221772418445</v>
+        <v>1214.829574948011</v>
       </c>
       <c r="G4" s="0">
-        <v>17669.600349484113</v>
+        <v>279.04934483572805</v>
       </c>
       <c r="H4" s="0">
-        <v>206799.9091098381</v>
+        <v>3241.235131476752</v>
       </c>
       <c r="I4" s="0">
-        <v>278627.41919905302</v>
+        <v>4732.5559821343059</v>
       </c>
       <c r="J4" s="0">
-        <v>41684.011688277547</v>
+        <v>888.22710350282591</v>
       </c>
     </row>
     <row r="5">
@@ -7155,31 +7155,31 @@
         <v>13</v>
       </c>
       <c r="B5" s="0">
-        <v>404.90484724241014</v>
+        <v>472.25165695049242</v>
       </c>
       <c r="C5" s="0">
-        <v>952.64454486222792</v>
+        <v>517.58769195319439</v>
       </c>
       <c r="D5" s="0">
-        <v>354.10382359454934</v>
+        <v>25.91478312719709</v>
       </c>
       <c r="E5" s="0">
-        <v>1760.6160168746819</v>
+        <v>590.6970199233549</v>
       </c>
       <c r="F5" s="0">
-        <v>5828.2603154874669</v>
+        <v>671.41182290960023</v>
       </c>
       <c r="G5" s="0">
-        <v>2194.321245942378</v>
+        <v>56.402502795003862</v>
       </c>
       <c r="H5" s="0">
-        <v>16908.255002200698</v>
+        <v>1257.3235952087052</v>
       </c>
       <c r="I5" s="0">
-        <v>46593.532005502297</v>
+        <v>1682.4552479212102</v>
       </c>
       <c r="J5" s="0">
-        <v>15532.89541875766</v>
+        <v>251.5171822814728</v>
       </c>
     </row>
     <row r="6">
@@ -7187,31 +7187,31 @@
         <v>14</v>
       </c>
       <c r="B6" s="0">
-        <v>155.74012009877856</v>
+        <v>507.71880232376941</v>
       </c>
       <c r="C6" s="0">
-        <v>271.26892691057509</v>
+        <v>526.00188664122095</v>
       </c>
       <c r="D6" s="0">
-        <v>108.60653841430853</v>
+        <v>12.70889920755458</v>
       </c>
       <c r="E6" s="0">
-        <v>496.2186935377083</v>
+        <v>842.83263735641435</v>
       </c>
       <c r="F6" s="0">
-        <v>1856.7943458866218</v>
+        <v>932.77895730912439</v>
       </c>
       <c r="G6" s="0">
-        <v>1068.4093838858623</v>
+        <v>53.423283067604331</v>
       </c>
       <c r="H6" s="0">
-        <v>3164.9366493335938</v>
+        <v>4951.9497710567639</v>
       </c>
       <c r="I6" s="0">
-        <v>6078.489547073832</v>
+        <v>6084.1783283149107</v>
       </c>
       <c r="J6" s="0">
-        <v>1696.498749170793</v>
+        <v>662.26202099193165</v>
       </c>
     </row>
     <row r="7">
@@ -7322,7 +7322,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" customWidth="true"/>
+    <col min="1" max="1" width="5.1796875" customWidth="true"/>
     <col min="2" max="2" width="11.453125" customWidth="true"/>
     <col min="3" max="3" width="11.453125" customWidth="true"/>
     <col min="4" max="4" width="11.453125" customWidth="true"/>
@@ -7335,34 +7335,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7435,31 +7435,31 @@
         <v>12</v>
       </c>
       <c r="B4" s="0">
-        <v>462.37120425965986</v>
+        <v>673.01537493036096</v>
       </c>
       <c r="C4" s="0">
-        <v>576.8183176636901</v>
+        <v>756.37883626816597</v>
       </c>
       <c r="D4" s="0">
-        <v>58.681073935859388</v>
+        <v>37.93612400698931</v>
       </c>
       <c r="E4" s="0">
-        <v>832.20063284101343</v>
+        <v>878.70853036185326</v>
       </c>
       <c r="F4" s="0">
-        <v>1041.7986429867644</v>
+        <v>943.52145864694569</v>
       </c>
       <c r="G4" s="0">
-        <v>86.782650132829374</v>
+        <v>36.251538699906149</v>
       </c>
       <c r="H4" s="0">
-        <v>2289.8387677813243</v>
+        <v>1481.383338772273</v>
       </c>
       <c r="I4" s="0">
-        <v>2513.5997475406771</v>
+        <v>1648.6495926737255</v>
       </c>
       <c r="J4" s="0">
-        <v>138.05003585623123</v>
+        <v>85.481463208301733</v>
       </c>
     </row>
     <row r="5">
@@ -7467,31 +7467,31 @@
         <v>13</v>
       </c>
       <c r="B5" s="0">
-        <v>283.41653413946233</v>
+        <v>702.42080876594162</v>
       </c>
       <c r="C5" s="0">
-        <v>348.20289541097583</v>
+        <v>789.03146690719552</v>
       </c>
       <c r="D5" s="0">
-        <v>28.036258586692146</v>
+        <v>25.749177420999452</v>
       </c>
       <c r="E5" s="0">
-        <v>635.2395846471577</v>
+        <v>851.19786185471662</v>
       </c>
       <c r="F5" s="0">
-        <v>756.30211814878101</v>
+        <v>879.21445965204975</v>
       </c>
       <c r="G5" s="0">
-        <v>49.004960429526356</v>
+        <v>18.066074637222073</v>
       </c>
       <c r="H5" s="0">
-        <v>1784.4986149684564</v>
+        <v>1295.5775845080721</v>
       </c>
       <c r="I5" s="0">
-        <v>1951.3792446805921</v>
+        <v>1407.5785571249492</v>
       </c>
       <c r="J5" s="0">
-        <v>80.654828936570226</v>
+        <v>40.319776418650221</v>
       </c>
     </row>
     <row r="6">
@@ -7499,31 +7499,31 @@
         <v>14</v>
       </c>
       <c r="B6" s="0">
-        <v>96.52114623397415</v>
+        <v>599.21071683976425</v>
       </c>
       <c r="C6" s="0">
-        <v>130.735638520338</v>
+        <v>624.30755121330856</v>
       </c>
       <c r="D6" s="0">
-        <v>19.463017781228388</v>
+        <v>14.761851363039506</v>
       </c>
       <c r="E6" s="0">
-        <v>168.4964598222939</v>
+        <v>790.32593368127698</v>
       </c>
       <c r="F6" s="0">
-        <v>291.15201961787494</v>
+        <v>857.28515739295472</v>
       </c>
       <c r="G6" s="0">
-        <v>63.614336672809273</v>
+        <v>27.540029538062484</v>
       </c>
       <c r="H6" s="0">
-        <v>634.71324585637421</v>
+        <v>1573.5312399186307</v>
       </c>
       <c r="I6" s="0">
-        <v>773.06969249971746</v>
+        <v>1646.4577391573955</v>
       </c>
       <c r="J6" s="0">
-        <v>64.586756236543366</v>
+        <v>43.385526420642393</v>
       </c>
     </row>
     <row r="7">
@@ -7634,7 +7634,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" customWidth="true"/>
+    <col min="1" max="1" width="5.1796875" customWidth="true"/>
     <col min="2" max="2" width="11.453125" customWidth="true"/>
     <col min="3" max="3" width="11.453125" customWidth="true"/>
     <col min="4" max="4" width="11.453125" customWidth="true"/>
@@ -7647,34 +7647,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7747,31 +7747,31 @@
         <v>12</v>
       </c>
       <c r="B4" s="0">
-        <v>85.856935855973916</v>
+        <v>649.52322891012591</v>
       </c>
       <c r="C4" s="0">
-        <v>112.73565283887086</v>
+        <v>663.97520044888722</v>
       </c>
       <c r="D4" s="0">
-        <v>11.962482401405984</v>
+        <v>8.2389271268630573</v>
       </c>
       <c r="E4" s="0">
-        <v>104.42720724443052</v>
+        <v>667.87737420858411</v>
       </c>
       <c r="F4" s="0">
-        <v>131.54787856886571</v>
+        <v>676.8469458058994</v>
       </c>
       <c r="G4" s="0">
-        <v>12.063556134018917</v>
+        <v>5.1969254271794645</v>
       </c>
       <c r="H4" s="0">
-        <v>135.7210336592907</v>
+        <v>679.36535658812193</v>
       </c>
       <c r="I4" s="0">
-        <v>148.30519962650203</v>
+        <v>689.23231175863418</v>
       </c>
       <c r="J4" s="0">
-        <v>6.8489683807864807</v>
+        <v>4.5251647168241265</v>
       </c>
     </row>
     <row r="5">
@@ -7779,31 +7779,31 @@
         <v>13</v>
       </c>
       <c r="B5" s="0">
-        <v>35.873077531912941</v>
+        <v>647.19681909358758</v>
       </c>
       <c r="C5" s="0">
-        <v>54.807958100224837</v>
+        <v>666.93120228464625</v>
       </c>
       <c r="D5" s="0">
-        <v>6.8528963008334065</v>
+        <v>5.9317167973050777</v>
       </c>
       <c r="E5" s="0">
-        <v>62.042229775030478</v>
+        <v>658.27578612586274</v>
       </c>
       <c r="F5" s="0">
-        <v>77.220252885082303</v>
+        <v>672.0353038503506</v>
       </c>
       <c r="G5" s="0">
-        <v>4.827698540179842</v>
+        <v>5.3594695041237426</v>
       </c>
       <c r="H5" s="0">
-        <v>83.781118617258699</v>
+        <v>668.33499301942641</v>
       </c>
       <c r="I5" s="0">
-        <v>100.55397596715417</v>
+        <v>679.65316877529233</v>
       </c>
       <c r="J5" s="0">
-        <v>7.0131572000537821</v>
+        <v>6.3410867800431134</v>
       </c>
     </row>
     <row r="6">
@@ -7811,31 +7811,31 @@
         <v>14</v>
       </c>
       <c r="B6" s="0">
-        <v>7.9151906430819281</v>
+        <v>611.24535104410631</v>
       </c>
       <c r="C6" s="0">
-        <v>16.04421884236416</v>
+        <v>618.00838246875128</v>
       </c>
       <c r="D6" s="0">
-        <v>5.812880954209354</v>
+        <v>3.0285353781481774</v>
       </c>
       <c r="E6" s="0">
-        <v>15.346171885479976</v>
+        <v>630.26550348762873</v>
       </c>
       <c r="F6" s="0">
-        <v>25.628773138637062</v>
+        <v>637.00321918771033</v>
       </c>
       <c r="G6" s="0">
-        <v>7.12694803176894</v>
+        <v>3.281856669624116</v>
       </c>
       <c r="H6" s="0">
-        <v>43.109418853018042</v>
+        <v>662.05134991112311</v>
       </c>
       <c r="I6" s="0">
-        <v>49.070895193000766</v>
+        <v>669.60560921789624</v>
       </c>
       <c r="J6" s="0">
-        <v>4.3753761263875877</v>
+        <v>3.4783502180422419</v>
       </c>
     </row>
     <row r="7">
@@ -7946,7 +7946,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" customWidth="true"/>
+    <col min="1" max="1" width="5.1796875" customWidth="true"/>
     <col min="2" max="2" width="11.453125" customWidth="true"/>
     <col min="3" max="3" width="11.453125" customWidth="true"/>
     <col min="4" max="4" width="11.453125" customWidth="true"/>
@@ -7959,34 +7959,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8059,31 +8059,31 @@
         <v>12</v>
       </c>
       <c r="B4" s="0">
-        <v>1797.6587309415891</v>
+        <v>1004.5039829939575</v>
       </c>
       <c r="C4" s="0">
-        <v>2415.112754288944</v>
+        <v>1157.8731028380103</v>
       </c>
       <c r="D4" s="0">
-        <v>295.83917569046025</v>
+        <v>88.726130417626081</v>
       </c>
       <c r="E4" s="0">
-        <v>3985.9489234916691</v>
+        <v>1460.1363653554115</v>
       </c>
       <c r="F4" s="0">
-        <v>5086.2473200347658</v>
+        <v>1661.862235360056</v>
       </c>
       <c r="G4" s="0">
-        <v>443.86935306397913</v>
+        <v>94.698601722917132</v>
       </c>
       <c r="H4" s="0">
-        <v>10708.07219317124</v>
+        <v>3232.2439206432941</v>
       </c>
       <c r="I4" s="0">
-        <v>12709.050657247868</v>
+        <v>3486.9516382433021</v>
       </c>
       <c r="J4" s="0">
-        <v>680.99038034272291</v>
+        <v>124.36200993551657</v>
       </c>
     </row>
     <row r="5">
@@ -8091,31 +8091,31 @@
         <v>13</v>
       </c>
       <c r="B5" s="0">
-        <v>446.74950560522166</v>
+        <v>1066.7323871856779</v>
       </c>
       <c r="C5" s="0">
-        <v>647.04167695259116</v>
+        <v>1181.5928504810302</v>
       </c>
       <c r="D5" s="0">
-        <v>117.8204524295831</v>
+        <v>69.45157532221711</v>
       </c>
       <c r="E5" s="0">
-        <v>1079.0259802071419</v>
+        <v>1377.7490356481071</v>
       </c>
       <c r="F5" s="0">
-        <v>1848.496999434758</v>
+        <v>1630.5703669278421</v>
       </c>
       <c r="G5" s="0">
-        <v>348.86100764667935</v>
+        <v>157.93731608796475</v>
       </c>
       <c r="H5" s="0">
-        <v>5563.9295265413366</v>
+        <v>2663.2750348345244</v>
       </c>
       <c r="I5" s="0">
-        <v>6938.1338305191548</v>
+        <v>3091.5904528618994</v>
       </c>
       <c r="J5" s="0">
-        <v>626.46602801347581</v>
+        <v>210.02050892327375</v>
       </c>
     </row>
     <row r="6">
@@ -8123,31 +8123,31 @@
         <v>14</v>
       </c>
       <c r="B6" s="0">
-        <v>140.13470153246499</v>
+        <v>899.84446514049773</v>
       </c>
       <c r="C6" s="0">
-        <v>215.07909055448056</v>
+        <v>973.37202282215628</v>
       </c>
       <c r="D6" s="0">
-        <v>44.609924932445452</v>
+        <v>26.922148800252899</v>
       </c>
       <c r="E6" s="0">
-        <v>345.17898737803489</v>
+        <v>1389.462484335304</v>
       </c>
       <c r="F6" s="0">
-        <v>459.16498979419339</v>
+        <v>1543.5470048863458</v>
       </c>
       <c r="G6" s="0">
-        <v>80.579794402444946</v>
+        <v>65.8180842330122</v>
       </c>
       <c r="H6" s="0">
-        <v>1185.9260615974731</v>
+        <v>3717.4069398067313</v>
       </c>
       <c r="I6" s="0">
-        <v>1559.19916094475</v>
+        <v>4302.7696865160888</v>
       </c>
       <c r="J6" s="0">
-        <v>164.50476364260953</v>
+        <v>211.7556924026689</v>
       </c>
     </row>
     <row r="7">
@@ -8258,7 +8258,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" customWidth="true"/>
+    <col min="1" max="1" width="5.1796875" customWidth="true"/>
     <col min="2" max="2" width="11.453125" customWidth="true"/>
     <col min="3" max="3" width="11.453125" customWidth="true"/>
     <col min="4" max="4" width="11.453125" customWidth="true"/>
@@ -8271,34 +8271,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8371,31 +8371,31 @@
         <v>12</v>
       </c>
       <c r="B4" s="0">
-        <v>347.09552886587562</v>
+        <v>918.80536505984867</v>
       </c>
       <c r="C4" s="0">
-        <v>470.8320201638146</v>
+        <v>995.0877092016957</v>
       </c>
       <c r="D4" s="0">
-        <v>45.499875847624146</v>
+        <v>26.585381266217386</v>
       </c>
       <c r="E4" s="0">
-        <v>825.5787864984004</v>
+        <v>1176.3002905979818</v>
       </c>
       <c r="F4" s="0">
-        <v>998.75824763577123</v>
+        <v>1259.7542896323414</v>
       </c>
       <c r="G4" s="0">
-        <v>81.034849996677011</v>
+        <v>46.686039524121476</v>
       </c>
       <c r="H4" s="0">
-        <v>2275.0160117191263</v>
+        <v>1959.7380580255701</v>
       </c>
       <c r="I4" s="0">
-        <v>2581.9935724536995</v>
+        <v>2095.2374168722417</v>
       </c>
       <c r="J4" s="0">
-        <v>136.06164604264873</v>
+        <v>78.114398348050429</v>
       </c>
     </row>
     <row r="5">
@@ -8403,31 +8403,31 @@
         <v>13</v>
       </c>
       <c r="B5" s="0">
-        <v>259.4268933050846</v>
+        <v>941.61835293218257</v>
       </c>
       <c r="C5" s="0">
-        <v>314.25535093514679</v>
+        <v>990.17608912799449</v>
       </c>
       <c r="D5" s="0">
-        <v>28.253971655762104</v>
+        <v>20.720722473774309</v>
       </c>
       <c r="E5" s="0">
-        <v>619.63253418888917</v>
+        <v>1184.8649081667361</v>
       </c>
       <c r="F5" s="0">
-        <v>737.20460187669698</v>
+        <v>1219.3936254592284</v>
       </c>
       <c r="G5" s="0">
-        <v>53.135946270840677</v>
+        <v>14.554120717501581</v>
       </c>
       <c r="H5" s="0">
-        <v>1778.5600358264546</v>
+        <v>1796.6866943440903</v>
       </c>
       <c r="I5" s="0">
-        <v>2064.3605714279829</v>
+        <v>1915.2465159226856</v>
       </c>
       <c r="J5" s="0">
-        <v>125.28487355845012</v>
+        <v>62.554245189848139</v>
       </c>
     </row>
     <row r="6">
@@ -8435,31 +8435,31 @@
         <v>14</v>
       </c>
       <c r="B6" s="0">
-        <v>75.278265329220972</v>
+        <v>887.11301032388042</v>
       </c>
       <c r="C6" s="0">
-        <v>110.88406749941869</v>
+        <v>919.7224241987584</v>
       </c>
       <c r="D6" s="0">
-        <v>30.634310265785611</v>
+        <v>12.107061728186322</v>
       </c>
       <c r="E6" s="0">
-        <v>176.10631531314152</v>
+        <v>1096.5264168892847</v>
       </c>
       <c r="F6" s="0">
-        <v>299.84720627324594</v>
+        <v>1161.6313030964209</v>
       </c>
       <c r="G6" s="0">
-        <v>65.97366448818353</v>
+        <v>26.552915157804982</v>
       </c>
       <c r="H6" s="0">
-        <v>646.30260866491471</v>
+        <v>1817.6344507622944</v>
       </c>
       <c r="I6" s="0">
-        <v>761.92421800504064</v>
+        <v>1936.3150300306902</v>
       </c>
       <c r="J6" s="0">
-        <v>71.381170306327533</v>
+        <v>54.412096434126283</v>
       </c>
     </row>
     <row r="7">
@@ -8570,7 +8570,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" customWidth="true"/>
+    <col min="1" max="1" width="5.1796875" customWidth="true"/>
     <col min="2" max="2" width="11.453125" customWidth="true"/>
     <col min="3" max="3" width="11.453125" customWidth="true"/>
     <col min="4" max="4" width="11.453125" customWidth="true"/>
@@ -8583,34 +8583,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8683,31 +8683,31 @@
         <v>12</v>
       </c>
       <c r="B4" s="0">
-        <v>13819.265444441977</v>
+        <v>4319.1038953744082</v>
       </c>
       <c r="C4" s="0">
-        <v>21237.056606311668</v>
+        <v>6582.2982690580266</v>
       </c>
       <c r="D4" s="0">
-        <v>4182.0227599316549</v>
+        <v>1057.8997062970971</v>
       </c>
       <c r="E4" s="0">
-        <v>48598.375846073854</v>
+        <v>17496.875063980271</v>
       </c>
       <c r="F4" s="0">
-        <v>68293.876474399483</v>
+        <v>22236.094096019657</v>
       </c>
       <c r="G4" s="0">
-        <v>10098.292641472808</v>
+        <v>2808.2777778966679</v>
       </c>
       <c r="H4" s="0">
-        <v>136287.4214253012</v>
+        <v>40344.413128894623</v>
       </c>
       <c r="I4" s="0">
-        <v>171771.68434545066</v>
+        <v>54182.027679557468</v>
       </c>
       <c r="J4" s="0">
-        <v>20050.305976448577</v>
+        <v>5910.4147581618736</v>
       </c>
     </row>
     <row r="5">
@@ -8715,31 +8715,31 @@
         <v>13</v>
       </c>
       <c r="B5" s="0">
-        <v>7433.3948182598324</v>
+        <v>5300.6031981323049</v>
       </c>
       <c r="C5" s="0">
-        <v>9814.3520523622938</v>
+        <v>10130.774588802742</v>
       </c>
       <c r="D5" s="0">
-        <v>1532.3842499986265</v>
+        <v>2915.1158091365728</v>
       </c>
       <c r="E5" s="0">
-        <v>29032.421394461926</v>
+        <v>15465.662278390771</v>
       </c>
       <c r="F5" s="0">
-        <v>38430.37715756386</v>
+        <v>31110.197410491339</v>
       </c>
       <c r="G5" s="0">
-        <v>4189.0656202933751</v>
+        <v>11254.295042651736</v>
       </c>
       <c r="H5" s="0">
-        <v>103608.78435583944</v>
+        <v>31670.778774868795</v>
       </c>
       <c r="I5" s="0">
-        <v>120754.0784338775</v>
+        <v>63576.523639470608</v>
       </c>
       <c r="J5" s="0">
-        <v>8996.3941596271688</v>
+        <v>22690.761349194694</v>
       </c>
     </row>
     <row r="6">
@@ -8747,31 +8747,31 @@
         <v>14</v>
       </c>
       <c r="B6" s="0">
-        <v>384.94604685688682</v>
+        <v>2142.3131456497522</v>
       </c>
       <c r="C6" s="0">
-        <v>1802.3617625710663</v>
+        <v>3154.0227841188339</v>
       </c>
       <c r="D6" s="0">
-        <v>1029.480214752786</v>
+        <v>560.20648977044232</v>
       </c>
       <c r="E6" s="0">
-        <v>2724.8687874951206</v>
+        <v>8464.2598456219057</v>
       </c>
       <c r="F6" s="0">
-        <v>11124.45786218287</v>
+        <v>13886.80230864339</v>
       </c>
       <c r="G6" s="0">
-        <v>4570.7233586382426</v>
+        <v>2613.1694873416354</v>
       </c>
       <c r="H6" s="0">
-        <v>19807.490677289163</v>
+        <v>52163.450598694537</v>
       </c>
       <c r="I6" s="0">
-        <v>42408.180137618954</v>
+        <v>71957.588939630397</v>
       </c>
       <c r="J6" s="0">
-        <v>12817.564560948722</v>
+        <v>7463.8121735882469</v>
       </c>
     </row>
     <row r="7">
@@ -8882,7 +8882,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" customWidth="true"/>
+    <col min="1" max="1" width="5.1796875" customWidth="true"/>
     <col min="2" max="2" width="11.453125" customWidth="true"/>
     <col min="3" max="3" width="11.453125" customWidth="true"/>
     <col min="4" max="4" width="11.453125" customWidth="true"/>
@@ -8895,34 +8895,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8995,31 +8995,31 @@
         <v>12</v>
       </c>
       <c r="B4" s="0">
-        <v>7277.1079617310061</v>
+        <v>4717.4122626029966</v>
       </c>
       <c r="C4" s="0">
-        <v>8127.7401871665661</v>
+        <v>6224.7228431780977</v>
       </c>
       <c r="D4" s="0">
-        <v>435.77589604621397</v>
+        <v>601.57281751369317</v>
       </c>
       <c r="E4" s="0">
-        <v>12141.085778164104</v>
+        <v>8788.2964081531536</v>
       </c>
       <c r="F4" s="0">
-        <v>14699.295959433703</v>
+        <v>10767.398626031811</v>
       </c>
       <c r="G4" s="0">
-        <v>724.59718633627722</v>
+        <v>1179.4963693466298</v>
       </c>
       <c r="H4" s="0">
-        <v>29389.605955686675</v>
+        <v>20780.552336626472</v>
       </c>
       <c r="I4" s="0">
-        <v>31863.212799982692</v>
+        <v>24873.983959659792</v>
       </c>
       <c r="J4" s="0">
-        <v>973.55627035834141</v>
+        <v>1733.8262547323961</v>
       </c>
     </row>
     <row r="5">
@@ -9027,31 +9027,31 @@
         <v>13</v>
       </c>
       <c r="B5" s="0">
-        <v>5239.6983788226489</v>
+        <v>4698.9707032181104</v>
       </c>
       <c r="C5" s="0">
-        <v>5951.5205853176576</v>
+        <v>5428.2677601701271</v>
       </c>
       <c r="D5" s="0">
-        <v>266.72172785586304</v>
+        <v>312.70482907372144</v>
       </c>
       <c r="E5" s="0">
-        <v>10416.553618156089</v>
+        <v>6935.4469190473101</v>
       </c>
       <c r="F5" s="0">
-        <v>11221.310199269326</v>
+        <v>9522.1235902573353</v>
       </c>
       <c r="G5" s="0">
-        <v>390.71812625873253</v>
+        <v>2826.0966655985621</v>
       </c>
       <c r="H5" s="0">
-        <v>25175.502243599054</v>
+        <v>15592.428656904296</v>
       </c>
       <c r="I5" s="0">
-        <v>26769.351774302449</v>
+        <v>17147.666744645427</v>
       </c>
       <c r="J5" s="0">
-        <v>589.04429319831263</v>
+        <v>723.25405736683479</v>
       </c>
     </row>
     <row r="6">
@@ -9059,31 +9059,31 @@
         <v>14</v>
       </c>
       <c r="B6" s="0">
-        <v>2480.9919700533192</v>
+        <v>4642.5600264683235</v>
       </c>
       <c r="C6" s="0">
-        <v>4180.3512984626541</v>
+        <v>5213.5273300054641</v>
       </c>
       <c r="D6" s="0">
-        <v>1246.5454339985454</v>
+        <v>291.90686584913522</v>
       </c>
       <c r="E6" s="0">
-        <v>4734.9243306806638</v>
+        <v>9865.7002068801667</v>
       </c>
       <c r="F6" s="0">
-        <v>7141.6490866033037</v>
+        <v>10536.622054094312</v>
       </c>
       <c r="G6" s="0">
-        <v>1771.5674722425385</v>
+        <v>326.13023432626682</v>
       </c>
       <c r="H6" s="0">
-        <v>13065.561971723575</v>
+        <v>24632.957573419964</v>
       </c>
       <c r="I6" s="0">
-        <v>17825.735702373888</v>
+        <v>26382.168070097392</v>
       </c>
       <c r="J6" s="0">
-        <v>3980.2419126139048</v>
+        <v>680.74363726400122</v>
       </c>
     </row>
     <row r="7">
